--- a/data_month/zb/房地产/商品房销售额.xlsx
+++ b/data_month/zb/房地产/商品房销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>商品房销售额_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>商品房期房销售额</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>商品房现房销售额</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>商品房销售额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -476,16 +491,21 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1691.74</v>
+        <v>144.39</v>
       </c>
       <c r="G2" t="n">
-        <v>36.4</v>
+        <v>60.7</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>144.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -493,16 +513,21 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1997.91</v>
+        <v>295.97</v>
       </c>
       <c r="G3" t="n">
-        <v>38.3</v>
+        <v>42.4</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>151.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -510,16 +535,21 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>3572</v>
+        <v>450.31</v>
       </c>
       <c r="G4" t="n">
-        <v>30.1</v>
+        <v>40.9</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>154.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -527,16 +557,21 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>144.39</v>
+        <v>623.65</v>
       </c>
       <c r="G5" t="n">
-        <v>60.7</v>
+        <v>41.5</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>173.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -544,16 +579,21 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>295.97</v>
+        <v>844.9299999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>42.4</v>
+        <v>38.4</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>221.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -561,16 +601,21 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>450.31</v>
+        <v>1032.55</v>
       </c>
       <c r="G7" t="n">
-        <v>40.9</v>
+        <v>38.6</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>187.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -578,16 +623,21 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>623.65</v>
+        <v>1244.7</v>
       </c>
       <c r="G8" t="n">
-        <v>41.5</v>
+        <v>42.8</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>212.1500000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -595,16 +645,21 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>844.9299999999999</v>
+        <v>1460.74</v>
       </c>
       <c r="G9" t="n">
-        <v>38.4</v>
+        <v>40.2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>216.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -612,16 +667,21 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>1032.55</v>
+        <v>1691.74</v>
       </c>
       <c r="G10" t="n">
-        <v>38.6</v>
+        <v>36.4</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -629,16 +689,21 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1244.7</v>
+        <v>1997.91</v>
       </c>
       <c r="G11" t="n">
-        <v>42.8</v>
+        <v>38.3</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>306.1700000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -646,16 +711,21 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1460.74</v>
+        <v>3572</v>
       </c>
       <c r="G12" t="n">
-        <v>40.2</v>
+        <v>30.1</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1574.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -663,16 +733,21 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>2259.39</v>
+        <v>222.46</v>
       </c>
       <c r="G13" t="n">
-        <v>33.6</v>
+        <v>54.1</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>222.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -680,16 +755,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2578.17</v>
+        <v>440.65</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>48.9</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>218.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -697,16 +777,21 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>4625.72</v>
+        <v>653.78</v>
       </c>
       <c r="G15" t="n">
-        <v>29.4</v>
+        <v>45.2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>213.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -714,16 +799,21 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>222.46</v>
+        <v>898.84</v>
       </c>
       <c r="G16" t="n">
-        <v>54.1</v>
+        <v>44.1</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>245.0600000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -731,16 +821,21 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>440.65</v>
+        <v>1181.16</v>
       </c>
       <c r="G17" t="n">
-        <v>48.9</v>
+        <v>39.8</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>282.3200000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -748,16 +843,21 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>653.78</v>
+        <v>1453.88</v>
       </c>
       <c r="G18" t="n">
-        <v>45.2</v>
+        <v>40.8</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>272.72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -765,16 +865,21 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>898.84</v>
+        <v>1721.13</v>
       </c>
       <c r="G19" t="n">
-        <v>44.1</v>
+        <v>38.3</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>267.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -782,16 +887,21 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>1181.16</v>
+        <v>1998.27</v>
       </c>
       <c r="G20" t="n">
-        <v>39.8</v>
+        <v>36.8</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>277.1399999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -799,16 +909,21 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>1453.88</v>
+        <v>2259.39</v>
       </c>
       <c r="G21" t="n">
-        <v>40.8</v>
+        <v>33.6</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>261.1199999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -816,16 +931,21 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>1721.13</v>
+        <v>2578.17</v>
       </c>
       <c r="G22" t="n">
-        <v>38.3</v>
+        <v>29</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>318.7800000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -833,16 +953,21 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1998.27</v>
+        <v>4625.72</v>
       </c>
       <c r="G23" t="n">
-        <v>36.8</v>
+        <v>29.4</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2047.55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -850,16 +975,21 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>3058.84</v>
+        <v>222.86</v>
       </c>
       <c r="G24" t="n">
-        <v>35.4</v>
+        <v>0.2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>222.86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -867,16 +997,21 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>3535.84</v>
+        <v>514.03</v>
       </c>
       <c r="G25" t="n">
-        <v>37.1</v>
+        <v>16.7</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>291.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -884,16 +1019,21 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>5721.22</v>
+        <v>779.74</v>
       </c>
       <c r="G26" t="n">
-        <v>23.7</v>
+        <v>19.3</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>265.71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -901,16 +1041,21 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>222.86</v>
+        <v>1045.49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>16.3</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>265.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -918,16 +1063,21 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>514.03</v>
+        <v>1445.17</v>
       </c>
       <c r="G28" t="n">
-        <v>16.7</v>
+        <v>22.4</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>399.6800000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -935,16 +1085,21 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>779.74</v>
+        <v>1779.98</v>
       </c>
       <c r="G29" t="n">
-        <v>19.3</v>
+        <v>22.4</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>334.8099999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -952,16 +1107,21 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1045.49</v>
+        <v>2157.03</v>
       </c>
       <c r="G30" t="n">
-        <v>16.3</v>
+        <v>25.3</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>377.0500000000002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -969,16 +1129,21 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1445.17</v>
+        <v>2635.4</v>
       </c>
       <c r="G31" t="n">
-        <v>22.4</v>
+        <v>31.9</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>478.3699999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -986,16 +1151,21 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>1779.98</v>
+        <v>3058.84</v>
       </c>
       <c r="G32" t="n">
-        <v>22.4</v>
+        <v>35.4</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>423.4400000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1003,16 +1173,21 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>2157.03</v>
+        <v>3535.84</v>
       </c>
       <c r="G33" t="n">
-        <v>25.3</v>
+        <v>37.1</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1020,16 +1195,21 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>2635.4</v>
+        <v>5721.22</v>
       </c>
       <c r="G34" t="n">
-        <v>31.9</v>
+        <v>23.7</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2185.38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1037,16 +1217,21 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>4309.46</v>
+        <v>392.42</v>
       </c>
       <c r="G35" t="n">
-        <v>40.6</v>
+        <v>76.09999999999999</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>392.42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1054,16 +1239,21 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>4898.86</v>
+        <v>784.6900000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>38.3</v>
+        <v>52.7</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>392.27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1071,16 +1261,21 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>7670.9</v>
+        <v>1147.43</v>
       </c>
       <c r="G37" t="n">
-        <v>34.1</v>
+        <v>46.6</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>362.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1088,16 +1283,21 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>392.42</v>
+        <v>1549.95</v>
       </c>
       <c r="G38" t="n">
-        <v>76.09999999999999</v>
+        <v>47.2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>402.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1105,16 +1305,21 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>784.6900000000001</v>
+        <v>2101.77</v>
       </c>
       <c r="G39" t="n">
-        <v>52.7</v>
+        <v>44.8</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>551.8199999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1122,16 +1327,21 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>1147.43</v>
+        <v>2574.92</v>
       </c>
       <c r="G40" t="n">
-        <v>46.6</v>
+        <v>43.9</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>473.1500000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1139,16 +1349,21 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>1549.95</v>
+        <v>3058.14</v>
       </c>
       <c r="G41" t="n">
-        <v>47.2</v>
+        <v>41.1</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>483.2199999999998</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1156,16 +1371,21 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>2101.77</v>
+        <v>3736.43</v>
       </c>
       <c r="G42" t="n">
-        <v>44.8</v>
+        <v>41.4</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>678.29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1173,16 +1393,21 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>2574.92</v>
+        <v>4309.46</v>
       </c>
       <c r="G43" t="n">
-        <v>43.9</v>
+        <v>40.6</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>573.0300000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1190,16 +1415,21 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>3058.14</v>
+        <v>4898.86</v>
       </c>
       <c r="G44" t="n">
-        <v>41.1</v>
+        <v>38.3</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>589.3999999999996</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1207,16 +1437,21 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>3736.43</v>
+        <v>7670.9</v>
       </c>
       <c r="G45" t="n">
-        <v>41.4</v>
+        <v>34.1</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2772.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1224,16 +1459,21 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>5703.89</v>
+        <v>578.78</v>
       </c>
       <c r="G46" t="n">
-        <v>31.9</v>
+        <v>47.8</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>578.78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1241,16 +1481,21 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>6545.73</v>
+        <v>1143.34</v>
       </c>
       <c r="G47" t="n">
-        <v>33.3</v>
+        <v>44.4</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>564.5599999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1258,16 +1503,21 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>10375.71</v>
+        <v>1641.54</v>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>42.5</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>498.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1275,16 +1525,21 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>578.78</v>
+        <v>2250.27</v>
       </c>
       <c r="G49" t="n">
-        <v>47.8</v>
+        <v>44.9</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>608.73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1292,16 +1547,21 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>1143.34</v>
+        <v>2973.54</v>
       </c>
       <c r="G50" t="n">
-        <v>44.4</v>
+        <v>40.9</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>723.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1309,16 +1569,21 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>1641.54</v>
+        <v>3657.49</v>
       </c>
       <c r="G51" t="n">
-        <v>42.5</v>
+        <v>41.4</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>683.9499999999998</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1326,16 +1591,21 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>2250.27</v>
+        <v>4287.05</v>
       </c>
       <c r="G52" t="n">
-        <v>44.9</v>
+        <v>39.7</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>629.5600000000004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1343,16 +1613,21 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>2973.54</v>
+        <v>5053.88</v>
       </c>
       <c r="G53" t="n">
-        <v>40.9</v>
+        <v>34.8</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>766.8299999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1360,16 +1635,21 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>3657.49</v>
+        <v>5703.89</v>
       </c>
       <c r="G54" t="n">
-        <v>41.4</v>
+        <v>31.9</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>650.0100000000002</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1377,16 +1657,21 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>4287.05</v>
+        <v>6545.73</v>
       </c>
       <c r="G55" t="n">
-        <v>39.7</v>
+        <v>33.3</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>841.8399999999992</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1394,85 +1679,87 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>5053.88</v>
+        <v>10375.71</v>
       </c>
       <c r="G56" t="n">
-        <v>34.8</v>
+        <v>30</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3829.98</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>8793.01</v>
-      </c>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>4132.88</v>
-      </c>
-      <c r="E57" t="n">
-        <v>33.6</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>12925.89</v>
+        <v>807.37</v>
       </c>
       <c r="G57" t="n">
-        <v>33.6</v>
+        <v>37.3</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>807.37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>9881.809999999999</v>
-      </c>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
-        <v>4548.33</v>
-      </c>
-      <c r="E58" t="n">
-        <v>33.3</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>14430.14</v>
+        <v>1559.33</v>
       </c>
       <c r="G58" t="n">
-        <v>33.3</v>
+        <v>35.3</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>751.9599999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>11656.13</v>
-      </c>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>6424.17</v>
-      </c>
-      <c r="E59" t="n">
-        <v>26.9</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>18080.3</v>
+        <v>2141.72</v>
       </c>
       <c r="G59" t="n">
-        <v>30</v>
+        <v>30.5</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>582.3899999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1480,16 +1767,21 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>807.37</v>
+        <v>2796.38</v>
       </c>
       <c r="G60" t="n">
-        <v>37.3</v>
+        <v>24.1</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>654.6600000000003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1497,16 +1789,21 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>1559.33</v>
+        <v>3727.28</v>
       </c>
       <c r="G61" t="n">
-        <v>35.3</v>
+        <v>25.6</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>930.9000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1514,4507 +1811,6159 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>2141.72</v>
+        <v>4938.28</v>
       </c>
       <c r="G62" t="n">
-        <v>30.5</v>
+        <v>34.9</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1211</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6851.66</v>
+      </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>3175.71</v>
+      </c>
+      <c r="E63" t="n">
+        <v>35.9</v>
+      </c>
       <c r="F63" t="n">
-        <v>2796.38</v>
+        <v>10027.37</v>
       </c>
       <c r="G63" t="n">
-        <v>24.1</v>
+        <v>35.9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6851.66</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3175.71</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5089.090000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7699.64</v>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>3613.66</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33.8</v>
+      </c>
       <c r="F64" t="n">
-        <v>3727.28</v>
+        <v>11313.3</v>
       </c>
       <c r="G64" t="n">
-        <v>25.6</v>
+        <v>33.8</v>
+      </c>
+      <c r="H64" t="n">
+        <v>847.9800000000005</v>
+      </c>
+      <c r="I64" t="n">
+        <v>437.9499999999998</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1285.929999999998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8793.01</v>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>4132.88</v>
+      </c>
+      <c r="E65" t="n">
+        <v>33.6</v>
+      </c>
       <c r="F65" t="n">
-        <v>4938.28</v>
+        <v>12925.89</v>
       </c>
       <c r="G65" t="n">
-        <v>34.9</v>
+        <v>33.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1093.37</v>
+      </c>
+      <c r="I65" t="n">
+        <v>519.2200000000003</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1612.59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6851.66</v>
+        <v>9881.809999999999</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>3175.71</v>
+        <v>4548.33</v>
       </c>
       <c r="E66" t="n">
-        <v>35.9</v>
+        <v>33.3</v>
       </c>
       <c r="F66" t="n">
-        <v>10027.37</v>
+        <v>14430.14</v>
       </c>
       <c r="G66" t="n">
-        <v>35.9</v>
+        <v>33.3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1088.799999999999</v>
+      </c>
+      <c r="I66" t="n">
+        <v>415.4499999999998</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1504.25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7699.64</v>
+        <v>11656.13</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>3613.66</v>
+        <v>6424.17</v>
       </c>
       <c r="E67" t="n">
-        <v>33.8</v>
+        <v>26.9</v>
       </c>
       <c r="F67" t="n">
-        <v>11313.3</v>
+        <v>18080.3</v>
       </c>
       <c r="G67" t="n">
-        <v>33.8</v>
+        <v>30</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1774.32</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1875.84</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3650.16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10294.1</v>
+        <v>1428.44</v>
       </c>
       <c r="C68" t="n">
-        <v>25.5</v>
+        <v>18.6</v>
       </c>
       <c r="D68" t="n">
-        <v>3759.06</v>
+        <v>453.48</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.1</v>
+        <v>3.8</v>
       </c>
       <c r="F68" t="n">
-        <v>14053.17</v>
+        <v>1881.93</v>
       </c>
       <c r="G68" t="n">
-        <v>17.1</v>
+        <v>14.7</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1428.44</v>
+      </c>
+      <c r="I68" t="n">
+        <v>453.48</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1881.93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11910.88</v>
+        <v>2346.71</v>
       </c>
       <c r="C69" t="n">
-        <v>26.9</v>
+        <v>16.5</v>
       </c>
       <c r="D69" t="n">
-        <v>4230.48</v>
+        <v>845.99</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.8</v>
+        <v>5.7</v>
       </c>
       <c r="F69" t="n">
-        <v>16141.36</v>
+        <v>3192.7</v>
       </c>
       <c r="G69" t="n">
-        <v>17.9</v>
+        <v>13.4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>918.27</v>
+      </c>
+      <c r="I69" t="n">
+        <v>392.51</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1310.77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>14365.98</v>
+        <v>3375.27</v>
       </c>
       <c r="C70" t="n">
-        <v>29.7</v>
+        <v>19.2</v>
       </c>
       <c r="D70" t="n">
-        <v>6143.7</v>
+        <v>1240.09</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.5</v>
+        <v>0.8</v>
       </c>
       <c r="F70" t="n">
-        <v>20509.68</v>
+        <v>4615.35</v>
       </c>
       <c r="G70" t="n">
-        <v>18.5</v>
+        <v>13.6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1028.56</v>
+      </c>
+      <c r="I70" t="n">
+        <v>394.0999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1422.650000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1428.44</v>
+        <v>4620.21</v>
       </c>
       <c r="C71" t="n">
-        <v>18.6</v>
+        <v>28.5</v>
       </c>
       <c r="D71" t="n">
-        <v>453.48</v>
+        <v>1649.84</v>
       </c>
       <c r="E71" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="F71" t="n">
-        <v>1881.93</v>
+        <v>6270.04</v>
       </c>
       <c r="G71" t="n">
-        <v>14.7</v>
+        <v>21.4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1244.94</v>
+      </c>
+      <c r="I71" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1654.69</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2346.71</v>
+        <v>5843.88</v>
       </c>
       <c r="C72" t="n">
-        <v>16.5</v>
+        <v>33.2</v>
       </c>
       <c r="D72" t="n">
-        <v>845.99</v>
+        <v>2113.6</v>
       </c>
       <c r="E72" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="F72" t="n">
-        <v>3192.7</v>
+        <v>7957.48</v>
       </c>
       <c r="G72" t="n">
-        <v>13.4</v>
+        <v>24.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1223.67</v>
+      </c>
+      <c r="I72" t="n">
+        <v>463.76</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1687.44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3375.27</v>
+        <v>6918.6</v>
       </c>
       <c r="C73" t="n">
-        <v>19.2</v>
+        <v>30.7</v>
       </c>
       <c r="D73" t="n">
-        <v>1240.09</v>
+        <v>2521.48</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="F73" t="n">
-        <v>4615.35</v>
+        <v>9440.08</v>
       </c>
       <c r="G73" t="n">
-        <v>13.6</v>
+        <v>21.7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1074.72</v>
+      </c>
+      <c r="I73" t="n">
+        <v>407.8800000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1482.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4620.21</v>
+        <v>7985.24</v>
       </c>
       <c r="C74" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="D74" t="n">
-        <v>1649.84</v>
+        <v>2885.48</v>
       </c>
       <c r="E74" t="n">
-        <v>5.1</v>
+        <v>-2.6</v>
       </c>
       <c r="F74" t="n">
-        <v>6270.04</v>
+        <v>10870.72</v>
       </c>
       <c r="G74" t="n">
-        <v>21.4</v>
+        <v>18.2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1066.639999999999</v>
+      </c>
+      <c r="I74" t="n">
+        <v>364</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1430.639999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5843.88</v>
+        <v>9087.52</v>
       </c>
       <c r="C75" t="n">
-        <v>33.2</v>
+        <v>27.9</v>
       </c>
       <c r="D75" t="n">
-        <v>2113.6</v>
+        <v>3327.82</v>
       </c>
       <c r="E75" t="n">
-        <v>5.5</v>
+        <v>-2.7</v>
       </c>
       <c r="F75" t="n">
-        <v>7957.48</v>
+        <v>12415.34</v>
       </c>
       <c r="G75" t="n">
-        <v>24.5</v>
+        <v>18</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1102.280000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>442.3400000000001</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1544.620000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6918.6</v>
+        <v>10294.1</v>
       </c>
       <c r="C76" t="n">
-        <v>30.7</v>
+        <v>25.5</v>
       </c>
       <c r="D76" t="n">
-        <v>2521.48</v>
+        <v>3759.06</v>
       </c>
       <c r="E76" t="n">
-        <v>2.4</v>
+        <v>-1.1</v>
       </c>
       <c r="F76" t="n">
-        <v>9440.08</v>
+        <v>14053.17</v>
       </c>
       <c r="G76" t="n">
-        <v>21.7</v>
+        <v>17.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1206.58</v>
+      </c>
+      <c r="I76" t="n">
+        <v>431.2399999999998</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1637.83</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7985.24</v>
+        <v>11910.88</v>
       </c>
       <c r="C77" t="n">
-        <v>28.1</v>
+        <v>26.9</v>
       </c>
       <c r="D77" t="n">
-        <v>2885.48</v>
+        <v>4230.48</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.6</v>
+        <v>-1.8</v>
       </c>
       <c r="F77" t="n">
-        <v>10870.72</v>
+        <v>16141.36</v>
       </c>
       <c r="G77" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1616.779999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>471.4199999999996</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2088.190000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9087.52</v>
+        <v>14365.98</v>
       </c>
       <c r="C78" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="D78" t="n">
-        <v>3327.82</v>
+        <v>6143.7</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.7</v>
+        <v>-1.5</v>
       </c>
       <c r="F78" t="n">
-        <v>12415.34</v>
+        <v>20509.68</v>
       </c>
       <c r="G78" t="n">
-        <v>18</v>
+        <v>18.5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2455.1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1913.22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4368.32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>16369.01</v>
+        <v>1768.36</v>
       </c>
       <c r="C79" t="n">
-        <v>59</v>
+        <v>23.8</v>
       </c>
       <c r="D79" t="n">
-        <v>4917.95</v>
+        <v>479.54</v>
       </c>
       <c r="E79" t="n">
-        <v>30.8</v>
+        <v>5.7</v>
       </c>
       <c r="F79" t="n">
-        <v>21286.95</v>
+        <v>2247.9</v>
       </c>
       <c r="G79" t="n">
-        <v>51.5</v>
+        <v>19.4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1768.36</v>
+      </c>
+      <c r="I79" t="n">
+        <v>479.54</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2247.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18439.8</v>
+        <v>3060.98</v>
       </c>
       <c r="C80" t="n">
-        <v>54.8</v>
+        <v>31</v>
       </c>
       <c r="D80" t="n">
-        <v>5562.85</v>
+        <v>989.77</v>
       </c>
       <c r="E80" t="n">
-        <v>31.5</v>
+        <v>17.2</v>
       </c>
       <c r="F80" t="n">
-        <v>24002.64</v>
+        <v>4050.75</v>
       </c>
       <c r="G80" t="n">
-        <v>48.7</v>
+        <v>27.4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1292.62</v>
+      </c>
+      <c r="I80" t="n">
+        <v>510.23</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1802.85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>21904.18</v>
+        <v>4555.08</v>
       </c>
       <c r="C81" t="n">
-        <v>51.5</v>
+        <v>35</v>
       </c>
       <c r="D81" t="n">
-        <v>7699.69</v>
+        <v>1442.24</v>
       </c>
       <c r="E81" t="n">
-        <v>20.9</v>
+        <v>16.3</v>
       </c>
       <c r="F81" t="n">
-        <v>29603.87</v>
+        <v>5997.32</v>
       </c>
       <c r="G81" t="n">
-        <v>42.1</v>
+        <v>30</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1494.1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>452.47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1946.57</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1768.36</v>
+        <v>6128.99</v>
       </c>
       <c r="C82" t="n">
-        <v>23.8</v>
+        <v>32.7</v>
       </c>
       <c r="D82" t="n">
-        <v>479.54</v>
+        <v>1930.77</v>
       </c>
       <c r="E82" t="n">
-        <v>5.7</v>
+        <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>2247.9</v>
+        <v>8059.75</v>
       </c>
       <c r="G82" t="n">
-        <v>19.4</v>
+        <v>28.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1573.91</v>
+      </c>
+      <c r="I82" t="n">
+        <v>488.53</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2062.43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3060.98</v>
+        <v>8099.11</v>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>38.6</v>
       </c>
       <c r="D83" t="n">
-        <v>989.77</v>
+        <v>2543.71</v>
       </c>
       <c r="E83" t="n">
-        <v>17.2</v>
+        <v>20.4</v>
       </c>
       <c r="F83" t="n">
-        <v>4050.75</v>
+        <v>10642.83</v>
       </c>
       <c r="G83" t="n">
-        <v>27.4</v>
+        <v>33.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1970.12</v>
+      </c>
+      <c r="I83" t="n">
+        <v>612.9400000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2583.08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4555.08</v>
+        <v>10051.41</v>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>45.3</v>
       </c>
       <c r="D84" t="n">
-        <v>1442.24</v>
+        <v>3091.03</v>
       </c>
       <c r="E84" t="n">
-        <v>16.3</v>
+        <v>22.6</v>
       </c>
       <c r="F84" t="n">
-        <v>5997.32</v>
+        <v>13142.44</v>
       </c>
       <c r="G84" t="n">
-        <v>30</v>
+        <v>39.2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1952.3</v>
+      </c>
+      <c r="I84" t="n">
+        <v>547.3200000000002</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2499.610000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6128.99</v>
+        <v>12191.56</v>
       </c>
       <c r="C85" t="n">
-        <v>32.7</v>
+        <v>52.7</v>
       </c>
       <c r="D85" t="n">
-        <v>1930.77</v>
+        <v>3628.79</v>
       </c>
       <c r="E85" t="n">
-        <v>17</v>
+        <v>25.8</v>
       </c>
       <c r="F85" t="n">
-        <v>8059.75</v>
+        <v>15820.34</v>
       </c>
       <c r="G85" t="n">
-        <v>28.5</v>
+        <v>45.6</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2140.15</v>
+      </c>
+      <c r="I85" t="n">
+        <v>537.7599999999998</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2677.9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8099.11</v>
+        <v>14417.4</v>
       </c>
       <c r="C86" t="n">
-        <v>38.6</v>
+        <v>58.7</v>
       </c>
       <c r="D86" t="n">
-        <v>2543.71</v>
+        <v>4267.38</v>
       </c>
       <c r="E86" t="n">
-        <v>20.4</v>
+        <v>28.2</v>
       </c>
       <c r="F86" t="n">
-        <v>10642.83</v>
+        <v>18684.77</v>
       </c>
       <c r="G86" t="n">
-        <v>33.8</v>
+        <v>50.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2225.84</v>
+      </c>
+      <c r="I86" t="n">
+        <v>638.5900000000001</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2864.43</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10051.41</v>
+        <v>16369.01</v>
       </c>
       <c r="C87" t="n">
-        <v>45.3</v>
+        <v>59</v>
       </c>
       <c r="D87" t="n">
-        <v>3091.03</v>
+        <v>4917.95</v>
       </c>
       <c r="E87" t="n">
-        <v>22.6</v>
+        <v>30.8</v>
       </c>
       <c r="F87" t="n">
-        <v>13142.44</v>
+        <v>21286.95</v>
       </c>
       <c r="G87" t="n">
-        <v>39.2</v>
+        <v>51.5</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1951.610000000001</v>
+      </c>
+      <c r="I87" t="n">
+        <v>650.5699999999997</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2602.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12191.56</v>
+        <v>18439.8</v>
       </c>
       <c r="C88" t="n">
-        <v>52.7</v>
+        <v>54.8</v>
       </c>
       <c r="D88" t="n">
-        <v>3628.79</v>
+        <v>5562.85</v>
       </c>
       <c r="E88" t="n">
-        <v>25.8</v>
+        <v>31.5</v>
       </c>
       <c r="F88" t="n">
-        <v>15820.34</v>
+        <v>24002.64</v>
       </c>
       <c r="G88" t="n">
-        <v>45.6</v>
+        <v>48.7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2070.789999999999</v>
+      </c>
+      <c r="I88" t="n">
+        <v>644.9000000000005</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2715.689999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>14417.4</v>
+        <v>21904.18</v>
       </c>
       <c r="C89" t="n">
-        <v>58.7</v>
+        <v>51.5</v>
       </c>
       <c r="D89" t="n">
-        <v>4267.38</v>
+        <v>7699.69</v>
       </c>
       <c r="E89" t="n">
-        <v>28.2</v>
+        <v>20.9</v>
       </c>
       <c r="F89" t="n">
-        <v>18684.77</v>
+        <v>29603.87</v>
       </c>
       <c r="G89" t="n">
-        <v>50.5</v>
+        <v>42.1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3464.380000000001</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2136.839999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5601.23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>13529.92</v>
+        <v>1649.8</v>
       </c>
       <c r="C90" t="n">
-        <v>-17.3</v>
+        <v>-6.7</v>
       </c>
       <c r="D90" t="n">
-        <v>4060.11</v>
+        <v>504.95</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.4</v>
+        <v>5.3</v>
       </c>
       <c r="F90" t="n">
-        <v>17590.03</v>
+        <v>2154.75</v>
       </c>
       <c r="G90" t="n">
-        <v>-17.4</v>
+        <v>-4.1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1649.8</v>
+      </c>
+      <c r="I90" t="n">
+        <v>504.95</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2154.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>14761.77</v>
+        <v>3092.11</v>
       </c>
       <c r="C91" t="n">
-        <v>-19.9</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>4499.42</v>
+        <v>1003.86</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.1</v>
+        <v>1.4</v>
       </c>
       <c r="F91" t="n">
-        <v>19261.19</v>
+        <v>4095.97</v>
       </c>
       <c r="G91" t="n">
-        <v>-19.8</v>
+        <v>1.1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1442.31</v>
+      </c>
+      <c r="I91" t="n">
+        <v>498.91</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1941.22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>17714.6</v>
+        <v>4500.68</v>
       </c>
       <c r="C92" t="n">
-        <v>-19.6</v>
+        <v>-1.2</v>
       </c>
       <c r="D92" t="n">
-        <v>6356.81</v>
+        <v>1404.11</v>
       </c>
       <c r="E92" t="n">
-        <v>-19.1</v>
+        <v>-2.6</v>
       </c>
       <c r="F92" t="n">
-        <v>24071.41</v>
+        <v>5904.79</v>
       </c>
       <c r="G92" t="n">
-        <v>-19.5</v>
+        <v>-1.5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1408.57</v>
+      </c>
+      <c r="I92" t="n">
+        <v>400.2499999999999</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1808.82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1649.8</v>
+        <v>6017.39</v>
       </c>
       <c r="C93" t="n">
-        <v>-6.7</v>
+        <v>-1.8</v>
       </c>
       <c r="D93" t="n">
-        <v>504.95</v>
+        <v>1819.85</v>
       </c>
       <c r="E93" t="n">
-        <v>5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="F93" t="n">
-        <v>2154.75</v>
+        <v>7837.24</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.1</v>
+        <v>-2.8</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1516.71</v>
+      </c>
+      <c r="I93" t="n">
+        <v>415.74</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1932.45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3092.11</v>
+        <v>7985.58</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>-1.4</v>
       </c>
       <c r="D94" t="n">
-        <v>1003.86</v>
+        <v>2339.85</v>
       </c>
       <c r="E94" t="n">
-        <v>1.4</v>
+        <v>-8</v>
       </c>
       <c r="F94" t="n">
-        <v>4095.97</v>
+        <v>10325.43</v>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>-3</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1968.19</v>
+      </c>
+      <c r="I94" t="n">
+        <v>520</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2488.190000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4500.68</v>
+        <v>9501.52</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.2</v>
+        <v>-5.5</v>
       </c>
       <c r="D95" t="n">
-        <v>1404.11</v>
+        <v>2719.65</v>
       </c>
       <c r="E95" t="n">
-        <v>-2.6</v>
+        <v>-12</v>
       </c>
       <c r="F95" t="n">
-        <v>5904.79</v>
+        <v>12221.17</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.5</v>
+        <v>-7</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1515.940000000001</v>
+      </c>
+      <c r="I95" t="n">
+        <v>379.8000000000002</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1895.74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6017.39</v>
+        <v>10738.49</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.8</v>
+        <v>-11.9</v>
       </c>
       <c r="D96" t="n">
-        <v>1819.85</v>
+        <v>3074.94</v>
       </c>
       <c r="E96" t="n">
-        <v>-5.7</v>
+        <v>-15.3</v>
       </c>
       <c r="F96" t="n">
-        <v>7837.24</v>
+        <v>13813.44</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.8</v>
+        <v>-12.7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1236.969999999999</v>
+      </c>
+      <c r="I96" t="n">
+        <v>355.29</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1592.27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7985.58</v>
+        <v>12255.06</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.4</v>
+        <v>-15</v>
       </c>
       <c r="D97" t="n">
-        <v>2339.85</v>
+        <v>3623.47</v>
       </c>
       <c r="E97" t="n">
-        <v>-8</v>
+        <v>-15.1</v>
       </c>
       <c r="F97" t="n">
-        <v>10325.43</v>
+        <v>15878.53</v>
       </c>
       <c r="G97" t="n">
-        <v>-3</v>
+        <v>-15</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1516.57</v>
+      </c>
+      <c r="I97" t="n">
+        <v>548.5299999999997</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2065.09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9501.52</v>
+        <v>13529.92</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.5</v>
+        <v>-17.3</v>
       </c>
       <c r="D98" t="n">
-        <v>2719.65</v>
+        <v>4060.11</v>
       </c>
       <c r="E98" t="n">
-        <v>-12</v>
+        <v>-17.4</v>
       </c>
       <c r="F98" t="n">
-        <v>12221.17</v>
+        <v>17590.03</v>
       </c>
       <c r="G98" t="n">
-        <v>-7</v>
+        <v>-17.4</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1274.860000000001</v>
+      </c>
+      <c r="I98" t="n">
+        <v>436.6400000000003</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1711.499999999998</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>10738.49</v>
+        <v>14761.77</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.9</v>
+        <v>-19.9</v>
       </c>
       <c r="D99" t="n">
-        <v>3074.94</v>
+        <v>4499.42</v>
       </c>
       <c r="E99" t="n">
-        <v>-15.3</v>
+        <v>-19.1</v>
       </c>
       <c r="F99" t="n">
-        <v>13813.44</v>
+        <v>19261.19</v>
       </c>
       <c r="G99" t="n">
-        <v>-12.7</v>
+        <v>-19.8</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1231.85</v>
+      </c>
+      <c r="I99" t="n">
+        <v>439.3099999999999</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1671.16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>12255.06</v>
+        <v>17714.6</v>
       </c>
       <c r="C100" t="n">
-        <v>-15</v>
+        <v>-19.6</v>
       </c>
       <c r="D100" t="n">
-        <v>3623.47</v>
+        <v>6356.81</v>
       </c>
       <c r="E100" t="n">
-        <v>-15.1</v>
+        <v>-19.1</v>
       </c>
       <c r="F100" t="n">
-        <v>15878.53</v>
+        <v>24071.41</v>
       </c>
       <c r="G100" t="n">
-        <v>-15</v>
+        <v>-19.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2952.829999999998</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1857.39</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4810.220000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>24331.94</v>
+        <v>1880.37</v>
       </c>
       <c r="C101" t="n">
-        <v>79.8</v>
+        <v>14</v>
       </c>
       <c r="D101" t="n">
-        <v>7197.18</v>
+        <v>516.61</v>
       </c>
       <c r="E101" t="n">
-        <v>77.3</v>
+        <v>2.3</v>
       </c>
       <c r="F101" t="n">
-        <v>31529.12</v>
+        <v>2396.98</v>
       </c>
       <c r="G101" t="n">
-        <v>79.2</v>
+        <v>11.2</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1880.37</v>
+      </c>
+      <c r="I101" t="n">
+        <v>516.61</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2396.98</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>27627.19</v>
+        <v>3766.69</v>
       </c>
       <c r="C102" t="n">
-        <v>87.2</v>
+        <v>21.3</v>
       </c>
       <c r="D102" t="n">
-        <v>8359.93</v>
+        <v>1291.95</v>
       </c>
       <c r="E102" t="n">
-        <v>85.8</v>
+        <v>28.5</v>
       </c>
       <c r="F102" t="n">
-        <v>35987.12</v>
+        <v>5058.64</v>
       </c>
       <c r="G102" t="n">
-        <v>86.8</v>
+        <v>23.1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1886.32</v>
+      </c>
+      <c r="I102" t="n">
+        <v>775.34</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2661.66</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>33226.45</v>
+        <v>6060.54</v>
       </c>
       <c r="C103" t="n">
-        <v>85.3</v>
+        <v>34.7</v>
       </c>
       <c r="D103" t="n">
-        <v>10768.09</v>
+        <v>1935.37</v>
       </c>
       <c r="E103" t="n">
-        <v>50.8</v>
+        <v>37.8</v>
       </c>
       <c r="F103" t="n">
-        <v>43994.54</v>
+        <v>7995.92</v>
       </c>
       <c r="G103" t="n">
-        <v>75.5</v>
+        <v>35.4</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2293.85</v>
+      </c>
+      <c r="I103" t="n">
+        <v>643.4199999999998</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2937.28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1880.37</v>
+        <v>8682.41</v>
       </c>
       <c r="C104" t="n">
-        <v>14</v>
+        <v>44.3</v>
       </c>
       <c r="D104" t="n">
-        <v>516.61</v>
+        <v>2706.52</v>
       </c>
       <c r="E104" t="n">
-        <v>2.3</v>
+        <v>48.7</v>
       </c>
       <c r="F104" t="n">
-        <v>2396.98</v>
+        <v>11388.92</v>
       </c>
       <c r="G104" t="n">
-        <v>11.2</v>
+        <v>45.3</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2621.87</v>
+      </c>
+      <c r="I104" t="n">
+        <v>771.1500000000001</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3393</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3766.69</v>
+        <v>12073.25</v>
       </c>
       <c r="C105" t="n">
-        <v>21.3</v>
+        <v>51.2</v>
       </c>
       <c r="D105" t="n">
-        <v>1291.95</v>
+        <v>3726.32</v>
       </c>
       <c r="E105" t="n">
-        <v>28.5</v>
+        <v>59.3</v>
       </c>
       <c r="F105" t="n">
-        <v>5058.64</v>
+        <v>15799.57</v>
       </c>
       <c r="G105" t="n">
-        <v>23.1</v>
+        <v>53</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3390.84</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1019.8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4410.65</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6060.54</v>
+        <v>15112.69</v>
       </c>
       <c r="C106" t="n">
-        <v>34.7</v>
+        <v>59.1</v>
       </c>
       <c r="D106" t="n">
-        <v>1935.37</v>
+        <v>4486.9</v>
       </c>
       <c r="E106" t="n">
-        <v>37.8</v>
+        <v>65</v>
       </c>
       <c r="F106" t="n">
-        <v>7995.92</v>
+        <v>19599.59</v>
       </c>
       <c r="G106" t="n">
-        <v>35.4</v>
+        <v>60.4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3039.440000000001</v>
+      </c>
+      <c r="I106" t="n">
+        <v>760.5799999999995</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3800.02</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>8682.41</v>
+        <v>18100.81</v>
       </c>
       <c r="C107" t="n">
-        <v>44.3</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>2706.52</v>
+        <v>5362.93</v>
       </c>
       <c r="E107" t="n">
-        <v>48.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>11388.92</v>
+        <v>23463.74</v>
       </c>
       <c r="G107" t="n">
-        <v>45.3</v>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2988.120000000001</v>
+      </c>
+      <c r="I107" t="n">
+        <v>876.0300000000007</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3864.150000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12073.25</v>
+        <v>21240.27</v>
       </c>
       <c r="C108" t="n">
-        <v>51.2</v>
+        <v>73.3</v>
       </c>
       <c r="D108" t="n">
-        <v>3726.32</v>
+        <v>6291.61</v>
       </c>
       <c r="E108" t="n">
-        <v>59.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>15799.57</v>
+        <v>27531.89</v>
       </c>
       <c r="G108" t="n">
-        <v>53</v>
+        <v>73.40000000000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3139.459999999999</v>
+      </c>
+      <c r="I108" t="n">
+        <v>928.6799999999994</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4068.149999999998</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>15112.69</v>
+        <v>24331.94</v>
       </c>
       <c r="C109" t="n">
-        <v>59.1</v>
+        <v>79.8</v>
       </c>
       <c r="D109" t="n">
-        <v>4486.9</v>
+        <v>7197.18</v>
       </c>
       <c r="E109" t="n">
-        <v>65</v>
+        <v>77.3</v>
       </c>
       <c r="F109" t="n">
-        <v>19599.59</v>
+        <v>31529.12</v>
       </c>
       <c r="G109" t="n">
-        <v>60.4</v>
+        <v>79.2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3091.669999999998</v>
+      </c>
+      <c r="I109" t="n">
+        <v>905.5700000000006</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3997.23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>18100.81</v>
+        <v>27627.19</v>
       </c>
       <c r="C110" t="n">
-        <v>68.59999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="D110" t="n">
-        <v>5362.93</v>
+        <v>8359.93</v>
       </c>
       <c r="E110" t="n">
-        <v>74.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="F110" t="n">
-        <v>23463.74</v>
+        <v>35987.12</v>
       </c>
       <c r="G110" t="n">
-        <v>69.90000000000001</v>
+        <v>86.8</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3295.25</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4458.000000000004</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>21240.27</v>
+        <v>33226.45</v>
       </c>
       <c r="C111" t="n">
-        <v>73.3</v>
+        <v>85.3</v>
       </c>
       <c r="D111" t="n">
-        <v>6291.61</v>
+        <v>10768.09</v>
       </c>
       <c r="E111" t="n">
-        <v>73.59999999999999</v>
+        <v>50.8</v>
       </c>
       <c r="F111" t="n">
-        <v>27531.89</v>
+        <v>43994.54</v>
       </c>
       <c r="G111" t="n">
-        <v>73.40000000000001</v>
+        <v>75.5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5599.259999999998</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2408.16</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8007.419999999998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>29972.9681</v>
+        <v>3333.5</v>
       </c>
       <c r="C112" t="n">
-        <v>23.2</v>
+        <v>76.2</v>
       </c>
       <c r="D112" t="n">
-        <v>7019.3084</v>
+        <v>782.24</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.5</v>
+        <v>48.6</v>
       </c>
       <c r="F112" t="n">
-        <v>36992.2765</v>
+        <v>4115.74</v>
       </c>
       <c r="G112" t="n">
-        <v>17.3</v>
+        <v>70.2</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3333.5</v>
+      </c>
+      <c r="I112" t="n">
+        <v>782.24</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4115.74</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>34171.1413</v>
+        <v>6325.5</v>
       </c>
       <c r="C113" t="n">
-        <v>23.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>8106.7476</v>
+        <v>1651.3</v>
       </c>
       <c r="E113" t="n">
-        <v>-3</v>
+        <v>27.8</v>
       </c>
       <c r="F113" t="n">
-        <v>42277.8889</v>
+        <v>7976.8</v>
       </c>
       <c r="G113" t="n">
-        <v>17.5</v>
+        <v>57.7</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2992</v>
+      </c>
+      <c r="I113" t="n">
+        <v>869.0599999999999</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3861.06</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>41656.7417</v>
+        <v>9884.190000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>25</v>
+        <v>63.1</v>
       </c>
       <c r="D114" t="n">
-        <v>10821.9821</v>
+        <v>2541.06</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.8</v>
+        <v>31.3</v>
       </c>
       <c r="F114" t="n">
-        <v>52478.7238</v>
+        <v>12425.24</v>
       </c>
       <c r="G114" t="n">
-        <v>18.3</v>
+        <v>55.4</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3558.690000000001</v>
+      </c>
+      <c r="I114" t="n">
+        <v>889.76</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4448.44</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3333.5</v>
+        <v>12556.1</v>
       </c>
       <c r="C115" t="n">
-        <v>76.2</v>
+        <v>44.6</v>
       </c>
       <c r="D115" t="n">
-        <v>782.24</v>
+        <v>3204.09</v>
       </c>
       <c r="E115" t="n">
-        <v>48.6</v>
+        <v>18.4</v>
       </c>
       <c r="F115" t="n">
-        <v>4115.74</v>
+        <v>15760.19</v>
       </c>
       <c r="G115" t="n">
-        <v>70.2</v>
+        <v>38.4</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2671.91</v>
+      </c>
+      <c r="I115" t="n">
+        <v>663.0300000000002</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3334.950000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6325.5</v>
+        <v>15767.98</v>
       </c>
       <c r="C116" t="n">
-        <v>67.90000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="D116" t="n">
-        <v>1651.3</v>
+        <v>4051.86</v>
       </c>
       <c r="E116" t="n">
-        <v>27.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>7976.8</v>
+        <v>19819.85</v>
       </c>
       <c r="G116" t="n">
-        <v>57.7</v>
+        <v>25.4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3211.879999999999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>847.77</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4059.659999999998</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>9884.190000000001</v>
+        <v>18264.72</v>
       </c>
       <c r="C117" t="n">
-        <v>63.1</v>
+        <v>20.9</v>
       </c>
       <c r="D117" t="n">
-        <v>2541.06</v>
+        <v>4620.97</v>
       </c>
       <c r="E117" t="n">
-        <v>31.3</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>12425.24</v>
+        <v>22885.69</v>
       </c>
       <c r="G117" t="n">
-        <v>55.4</v>
+        <v>16.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2496.740000000002</v>
+      </c>
+      <c r="I117" t="n">
+        <v>569.1100000000001</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3065.84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>12556.1</v>
+        <v>21184.36</v>
       </c>
       <c r="C118" t="n">
-        <v>44.6</v>
+        <v>17</v>
       </c>
       <c r="D118" t="n">
-        <v>3204.09</v>
+        <v>5233.88</v>
       </c>
       <c r="E118" t="n">
-        <v>18.4</v>
+        <v>-2.4</v>
       </c>
       <c r="F118" t="n">
-        <v>15760.19</v>
+        <v>26418.24</v>
       </c>
       <c r="G118" t="n">
-        <v>38.4</v>
+        <v>12.6</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2919.639999999999</v>
+      </c>
+      <c r="I118" t="n">
+        <v>612.9099999999999</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3532.550000000003</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>15767.98</v>
+        <v>25729.38</v>
       </c>
       <c r="C119" t="n">
-        <v>30.6</v>
+        <v>21.1</v>
       </c>
       <c r="D119" t="n">
-        <v>4051.86</v>
+        <v>6187.2</v>
       </c>
       <c r="E119" t="n">
-        <v>8.699999999999999</v>
+        <v>-1.7</v>
       </c>
       <c r="F119" t="n">
-        <v>19819.85</v>
+        <v>31916.58</v>
       </c>
       <c r="G119" t="n">
-        <v>25.4</v>
+        <v>15.9</v>
+      </c>
+      <c r="H119" t="n">
+        <v>4545.02</v>
+      </c>
+      <c r="I119" t="n">
+        <v>953.3199999999997</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5498.34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>18264.72</v>
+        <v>29972.9681</v>
       </c>
       <c r="C120" t="n">
-        <v>20.9</v>
+        <v>23.2</v>
       </c>
       <c r="D120" t="n">
-        <v>4620.97</v>
+        <v>7019.3084</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>-2.5</v>
       </c>
       <c r="F120" t="n">
-        <v>22885.69</v>
+        <v>36992.2765</v>
       </c>
       <c r="G120" t="n">
-        <v>16.8</v>
+        <v>17.3</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4243.588099999997</v>
+      </c>
+      <c r="I120" t="n">
+        <v>832.1084000000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5075.696499999998</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>21184.36</v>
+        <v>34171.1413</v>
       </c>
       <c r="C121" t="n">
-        <v>17</v>
+        <v>23.7</v>
       </c>
       <c r="D121" t="n">
-        <v>5233.88</v>
+        <v>8106.7476</v>
       </c>
       <c r="E121" t="n">
-        <v>-2.4</v>
+        <v>-3</v>
       </c>
       <c r="F121" t="n">
-        <v>26418.24</v>
+        <v>42277.8889</v>
       </c>
       <c r="G121" t="n">
-        <v>12.6</v>
+        <v>17.5</v>
+      </c>
+      <c r="H121" t="n">
+        <v>4198.173200000005</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1087.4392</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5285.612399999998</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25729.38</v>
+        <v>41656.7417</v>
       </c>
       <c r="C122" t="n">
-        <v>21.1</v>
+        <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>6187.2</v>
+        <v>10821.9821</v>
       </c>
       <c r="E122" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="F122" t="n">
-        <v>31916.58</v>
+        <v>52478.7238</v>
       </c>
       <c r="G122" t="n">
-        <v>15.9</v>
+        <v>18.3</v>
+      </c>
+      <c r="H122" t="n">
+        <v>7485.600399999996</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2715.2345</v>
+      </c>
+      <c r="J122" t="n">
+        <v>10200.8349</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>35843.0106</v>
+        <v>4348.5264</v>
       </c>
       <c r="C123" t="n">
-        <v>19.6</v>
+        <v>30.4</v>
       </c>
       <c r="D123" t="n">
-        <v>7983.227</v>
+        <v>893.0814</v>
       </c>
       <c r="E123" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="F123" t="n">
-        <v>43826.2376</v>
+        <v>5241.6078</v>
       </c>
       <c r="G123" t="n">
-        <v>18.5</v>
+        <v>27.4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4348.5264</v>
+      </c>
+      <c r="I123" t="n">
+        <v>893.0814</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5241.6078</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>39896.6231</v>
+        <v>8354.941199999999</v>
       </c>
       <c r="C124" t="n">
-        <v>16.8</v>
+        <v>32.1</v>
       </c>
       <c r="D124" t="n">
-        <v>9150.2376</v>
+        <v>1796.9667</v>
       </c>
       <c r="E124" t="n">
-        <v>12.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>49046.8607</v>
+        <v>10151.9079</v>
       </c>
       <c r="G124" t="n">
-        <v>16</v>
+        <v>27.3</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4006.4148</v>
+      </c>
+      <c r="I124" t="n">
+        <v>903.8852999999999</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4910.3001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>46851.3364</v>
+        <v>11549.69</v>
       </c>
       <c r="C125" t="n">
-        <v>12.4</v>
+        <v>16.9</v>
       </c>
       <c r="D125" t="n">
-        <v>12267.7506</v>
+        <v>2528.0355</v>
       </c>
       <c r="E125" t="n">
-        <v>11.3</v>
+        <v>-0.5</v>
       </c>
       <c r="F125" t="n">
-        <v>59119.087</v>
+        <v>14077.7255</v>
       </c>
       <c r="G125" t="n">
-        <v>12.1</v>
+        <v>13.3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3194.748800000001</v>
+      </c>
+      <c r="I125" t="n">
+        <v>731.0688</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3925.8176</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4348.5264</v>
+        <v>15344.6538</v>
       </c>
       <c r="C126" t="n">
-        <v>30.4</v>
+        <v>22.2</v>
       </c>
       <c r="D126" t="n">
-        <v>893.0814</v>
+        <v>3275.4416</v>
       </c>
       <c r="E126" t="n">
-        <v>14.2</v>
+        <v>2.2</v>
       </c>
       <c r="F126" t="n">
-        <v>5241.6078</v>
+        <v>18620.0954</v>
       </c>
       <c r="G126" t="n">
-        <v>27.4</v>
+        <v>18.1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3794.9638</v>
+      </c>
+      <c r="I126" t="n">
+        <v>747.4061000000002</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4542.369899999998</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>8354.941199999999</v>
+        <v>20146.1362</v>
       </c>
       <c r="C127" t="n">
-        <v>32.1</v>
+        <v>27.8</v>
       </c>
       <c r="D127" t="n">
-        <v>1796.9667</v>
+        <v>4443.279</v>
       </c>
       <c r="E127" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>10151.9079</v>
+        <v>24589.4152</v>
       </c>
       <c r="G127" t="n">
-        <v>27.3</v>
+        <v>24.1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4801.482400000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1167.8374</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5969.319800000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>11549.69</v>
+        <v>23616.5353</v>
       </c>
       <c r="C128" t="n">
-        <v>16.9</v>
+        <v>29.3</v>
       </c>
       <c r="D128" t="n">
-        <v>2528.0355</v>
+        <v>5235.5702</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.5</v>
+        <v>13.3</v>
       </c>
       <c r="F128" t="n">
-        <v>14077.7255</v>
+        <v>28852.1055</v>
       </c>
       <c r="G128" t="n">
-        <v>13.3</v>
+        <v>26.1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3470.399099999999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>792.2911999999997</v>
+      </c>
+      <c r="J128" t="n">
+        <v>4262.690300000002</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>15344.6538</v>
+        <v>27249.1402</v>
       </c>
       <c r="C129" t="n">
-        <v>22.2</v>
+        <v>28.6</v>
       </c>
       <c r="D129" t="n">
-        <v>3275.4416</v>
+        <v>6015.2564</v>
       </c>
       <c r="E129" t="n">
-        <v>2.2</v>
+        <v>14.9</v>
       </c>
       <c r="F129" t="n">
-        <v>18620.0954</v>
+        <v>33264.3966</v>
       </c>
       <c r="G129" t="n">
-        <v>18.1</v>
+        <v>25.9</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3632.604900000002</v>
+      </c>
+      <c r="I129" t="n">
+        <v>779.6862000000001</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4412.291099999999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>20146.1362</v>
+        <v>32233.1983</v>
       </c>
       <c r="C130" t="n">
-        <v>27.8</v>
+        <v>25.3</v>
       </c>
       <c r="D130" t="n">
-        <v>4443.279</v>
+        <v>7078.34</v>
       </c>
       <c r="E130" t="n">
-        <v>9.699999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="F130" t="n">
-        <v>24589.4152</v>
+        <v>39311.5383</v>
       </c>
       <c r="G130" t="n">
-        <v>24.1</v>
+        <v>23.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4984.058099999998</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1063.0836</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6047.1417</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>23616.5353</v>
+        <v>35843.0106</v>
       </c>
       <c r="C131" t="n">
-        <v>29.3</v>
+        <v>19.6</v>
       </c>
       <c r="D131" t="n">
-        <v>5235.5702</v>
+        <v>7983.227</v>
       </c>
       <c r="E131" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="F131" t="n">
-        <v>28852.1055</v>
+        <v>43826.2376</v>
       </c>
       <c r="G131" t="n">
-        <v>26.1</v>
+        <v>18.5</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3609.812300000001</v>
+      </c>
+      <c r="I131" t="n">
+        <v>904.8869999999997</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4514.6993</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>27249.1402</v>
+        <v>39896.6231</v>
       </c>
       <c r="C132" t="n">
-        <v>28.6</v>
+        <v>16.8</v>
       </c>
       <c r="D132" t="n">
-        <v>6015.2564</v>
+        <v>9150.2376</v>
       </c>
       <c r="E132" t="n">
-        <v>14.9</v>
+        <v>12.9</v>
       </c>
       <c r="F132" t="n">
-        <v>33264.3966</v>
+        <v>49046.8607</v>
       </c>
       <c r="G132" t="n">
-        <v>25.9</v>
+        <v>16</v>
+      </c>
+      <c r="H132" t="n">
+        <v>4053.612499999996</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1167.010600000001</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5220.623099999997</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>32233.1983</v>
+        <v>46851.3364</v>
       </c>
       <c r="C133" t="n">
-        <v>25.3</v>
+        <v>12.4</v>
       </c>
       <c r="D133" t="n">
-        <v>7078.34</v>
+        <v>12267.7506</v>
       </c>
       <c r="E133" t="n">
-        <v>14.4</v>
+        <v>11.3</v>
       </c>
       <c r="F133" t="n">
-        <v>39311.5383</v>
+        <v>59119.087</v>
       </c>
       <c r="G133" t="n">
-        <v>23.2</v>
+        <v>12.1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>6954.713300000003</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3117.512999999999</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10072.2263</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>37684.2472</v>
+        <v>3314.0398</v>
       </c>
       <c r="C134" t="n">
-        <v>5.1</v>
+        <v>-23.8</v>
       </c>
       <c r="D134" t="n">
-        <v>8616.5116</v>
+        <v>830.5422</v>
       </c>
       <c r="E134" t="n">
-        <v>7.9</v>
+        <v>-7</v>
       </c>
       <c r="F134" t="n">
-        <v>46300.7588</v>
+        <v>4144.582</v>
       </c>
       <c r="G134" t="n">
-        <v>5.6</v>
+        <v>-20.9</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3314.0398</v>
+      </c>
+      <c r="I134" t="n">
+        <v>830.5422</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4144.582</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>43401.1894</v>
+        <v>6924.1872</v>
       </c>
       <c r="C135" t="n">
-        <v>8.800000000000001</v>
+        <v>-17.1</v>
       </c>
       <c r="D135" t="n">
-        <v>10124.7448</v>
+        <v>1747.8384</v>
       </c>
       <c r="E135" t="n">
-        <v>10.7</v>
+        <v>-2.7</v>
       </c>
       <c r="F135" t="n">
-        <v>53525.9342</v>
+        <v>8672.025600000001</v>
       </c>
       <c r="G135" t="n">
-        <v>9.1</v>
+        <v>-14.6</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3610.1474</v>
+      </c>
+      <c r="I135" t="n">
+        <v>917.2962000000001</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4527.443600000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>51532.8756</v>
+        <v>9948.328299999999</v>
       </c>
       <c r="C136" t="n">
-        <v>11.3</v>
+        <v>-13.9</v>
       </c>
       <c r="D136" t="n">
-        <v>12922.91</v>
+        <v>2472.76</v>
       </c>
       <c r="E136" t="n">
-        <v>5.2</v>
+        <v>-2.2</v>
       </c>
       <c r="F136" t="n">
-        <v>64455.7856</v>
+        <v>12421.0883</v>
       </c>
       <c r="G136" t="n">
-        <v>10</v>
+        <v>-11.8</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3024.141099999999</v>
+      </c>
+      <c r="I136" t="n">
+        <v>724.9216000000001</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3749.062699999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3314.0398</v>
+        <v>13638.7561</v>
       </c>
       <c r="C137" t="n">
-        <v>-23.8</v>
+        <v>-11.1</v>
       </c>
       <c r="D137" t="n">
-        <v>830.5422</v>
+        <v>3293.4026</v>
       </c>
       <c r="E137" t="n">
-        <v>-7</v>
+        <v>0.5</v>
       </c>
       <c r="F137" t="n">
-        <v>4144.582</v>
+        <v>16932.1587</v>
       </c>
       <c r="G137" t="n">
-        <v>-20.9</v>
+        <v>-9.1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3690.427800000001</v>
+      </c>
+      <c r="I137" t="n">
+        <v>820.6425999999997</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4511.070400000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>6924.1872</v>
+        <v>18759.793</v>
       </c>
       <c r="C138" t="n">
-        <v>-17.1</v>
+        <v>-6.9</v>
       </c>
       <c r="D138" t="n">
-        <v>1747.8384</v>
+        <v>4554.2441</v>
       </c>
       <c r="E138" t="n">
-        <v>-2.7</v>
+        <v>2.5</v>
       </c>
       <c r="F138" t="n">
-        <v>8672.025600000001</v>
+        <v>23314.0371</v>
       </c>
       <c r="G138" t="n">
-        <v>-14.6</v>
+        <v>-5.2</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5121.036900000001</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1260.8415</v>
+      </c>
+      <c r="J138" t="n">
+        <v>6381.878400000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>9948.328299999999</v>
+        <v>23193.433</v>
       </c>
       <c r="C139" t="n">
-        <v>-13.9</v>
+        <v>-1.8</v>
       </c>
       <c r="D139" t="n">
-        <v>2472.76</v>
+        <v>5506.0418</v>
       </c>
       <c r="E139" t="n">
-        <v>-2.2</v>
+        <v>5.2</v>
       </c>
       <c r="F139" t="n">
-        <v>12421.0883</v>
+        <v>28699.4748</v>
       </c>
       <c r="G139" t="n">
-        <v>-11.8</v>
+        <v>-0.5</v>
+      </c>
+      <c r="H139" t="n">
+        <v>4433.639999999999</v>
+      </c>
+      <c r="I139" t="n">
+        <v>951.7977000000001</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5385.437699999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>13638.7561</v>
+        <v>27643.7837</v>
       </c>
       <c r="C140" t="n">
-        <v>-11.1</v>
+        <v>1.4</v>
       </c>
       <c r="D140" t="n">
-        <v>3293.4026</v>
+        <v>6367.3232</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="F140" t="n">
-        <v>16932.1587</v>
+        <v>34011.1069</v>
       </c>
       <c r="G140" t="n">
-        <v>-9.1</v>
+        <v>2.2</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4450.350699999999</v>
+      </c>
+      <c r="I140" t="n">
+        <v>861.2813999999998</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5311.632099999999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>18759.793</v>
+        <v>32917.966</v>
       </c>
       <c r="C141" t="n">
-        <v>-6.9</v>
+        <v>2.1</v>
       </c>
       <c r="D141" t="n">
-        <v>4554.2441</v>
+        <v>7435.7019</v>
       </c>
       <c r="E141" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>23314.0371</v>
+        <v>40353.6679</v>
       </c>
       <c r="G141" t="n">
-        <v>-5.2</v>
+        <v>2.7</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5274.1823</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1068.3787</v>
+      </c>
+      <c r="J141" t="n">
+        <v>6342.561000000002</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>23193.433</v>
+        <v>37684.2472</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.8</v>
+        <v>5.1</v>
       </c>
       <c r="D142" t="n">
-        <v>5506.0418</v>
+        <v>8616.5116</v>
       </c>
       <c r="E142" t="n">
-        <v>5.2</v>
+        <v>7.9</v>
       </c>
       <c r="F142" t="n">
-        <v>28699.4748</v>
+        <v>46300.7588</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.5</v>
+        <v>5.6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4766.281199999998</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1180.8097</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5947.090900000003</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>27643.7837</v>
+        <v>43401.1894</v>
       </c>
       <c r="C143" t="n">
-        <v>1.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>6367.3232</v>
+        <v>10124.7448</v>
       </c>
       <c r="E143" t="n">
-        <v>5.9</v>
+        <v>10.7</v>
       </c>
       <c r="F143" t="n">
-        <v>34011.1069</v>
+        <v>53525.9342</v>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5716.942200000005</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1508.233200000001</v>
+      </c>
+      <c r="J143" t="n">
+        <v>7225.1754</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>32917.966</v>
+        <v>51532.8756</v>
       </c>
       <c r="C144" t="n">
-        <v>2.1</v>
+        <v>11.3</v>
       </c>
       <c r="D144" t="n">
-        <v>7435.7019</v>
+        <v>12922.91</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F144" t="n">
-        <v>40353.6679</v>
+        <v>64455.7856</v>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>10</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8131.686199999996</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2798.165199999999</v>
+      </c>
+      <c r="J144" t="n">
+        <v>10929.8514</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>49184.5782</v>
+        <v>5938.4843</v>
       </c>
       <c r="C145" t="n">
-        <v>30.5</v>
+        <v>79.2</v>
       </c>
       <c r="D145" t="n">
-        <v>12053.0544</v>
+        <v>1422.8488</v>
       </c>
       <c r="E145" t="n">
-        <v>39.9</v>
+        <v>71.3</v>
       </c>
       <c r="F145" t="n">
-        <v>61237.6326</v>
+        <v>7361.3331</v>
       </c>
       <c r="G145" t="n">
-        <v>32.3</v>
+        <v>77.59999999999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5938.4843</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1422.8488</v>
+      </c>
+      <c r="J145" t="n">
+        <v>7361.3331</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>56099.1321</v>
+        <v>11200.586</v>
       </c>
       <c r="C146" t="n">
-        <v>29.3</v>
+        <v>61.8</v>
       </c>
       <c r="D146" t="n">
-        <v>13846.8634</v>
+        <v>2791.0422</v>
       </c>
       <c r="E146" t="n">
-        <v>36.8</v>
+        <v>59.7</v>
       </c>
       <c r="F146" t="n">
-        <v>69945.9955</v>
+        <v>13991.6282</v>
       </c>
       <c r="G146" t="n">
-        <v>30.7</v>
+        <v>61.3</v>
+      </c>
+      <c r="H146" t="n">
+        <v>5262.101699999999</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1368.1934</v>
+      </c>
+      <c r="J146" t="n">
+        <v>6630.295099999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>64545.9821</v>
+        <v>15908.9201</v>
       </c>
       <c r="C147" t="n">
-        <v>25.3</v>
+        <v>59.9</v>
       </c>
       <c r="D147" t="n">
-        <v>16882.3021</v>
+        <v>3938.2656</v>
       </c>
       <c r="E147" t="n">
-        <v>30.6</v>
+        <v>59.3</v>
       </c>
       <c r="F147" t="n">
-        <v>81428.28419999999</v>
+        <v>19847.1857</v>
       </c>
       <c r="G147" t="n">
-        <v>26.3</v>
+        <v>59.8</v>
+      </c>
+      <c r="H147" t="n">
+        <v>4708.3341</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1147.2234</v>
+      </c>
+      <c r="J147" t="n">
+        <v>5855.557500000003</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5938.4843</v>
+        <v>20761.9942</v>
       </c>
       <c r="C148" t="n">
-        <v>79.2</v>
+        <v>52.2</v>
       </c>
       <c r="D148" t="n">
-        <v>1422.8488</v>
+        <v>5101.9835</v>
       </c>
       <c r="E148" t="n">
-        <v>71.3</v>
+        <v>54.9</v>
       </c>
       <c r="F148" t="n">
-        <v>7361.3331</v>
+        <v>25863.9777</v>
       </c>
       <c r="G148" t="n">
-        <v>77.59999999999999</v>
+        <v>52.8</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4853.074100000002</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1163.7179</v>
+      </c>
+      <c r="J148" t="n">
+        <v>6016.791999999998</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>11200.586</v>
+        <v>26723.6889</v>
       </c>
       <c r="C149" t="n">
-        <v>61.8</v>
+        <v>42.5</v>
       </c>
       <c r="D149" t="n">
-        <v>2791.0422</v>
+        <v>6652.7175</v>
       </c>
       <c r="E149" t="n">
-        <v>59.7</v>
+        <v>46.1</v>
       </c>
       <c r="F149" t="n">
-        <v>13991.6282</v>
+        <v>33376.4064</v>
       </c>
       <c r="G149" t="n">
-        <v>61.3</v>
+        <v>43.2</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5961.6947</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1550.733999999999</v>
+      </c>
+      <c r="J149" t="n">
+        <v>7512.4287</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>15908.9201</v>
+        <v>31736.137</v>
       </c>
       <c r="C150" t="n">
-        <v>59.9</v>
+        <v>36.8</v>
       </c>
       <c r="D150" t="n">
-        <v>3938.2656</v>
+        <v>7812.7056</v>
       </c>
       <c r="E150" t="n">
-        <v>59.3</v>
+        <v>41.9</v>
       </c>
       <c r="F150" t="n">
-        <v>19847.1857</v>
+        <v>39548.8426</v>
       </c>
       <c r="G150" t="n">
-        <v>59.8</v>
+        <v>37.8</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5012.448099999998</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1159.9881</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6172.436200000004</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>20761.9942</v>
+        <v>36702.9743</v>
       </c>
       <c r="C151" t="n">
-        <v>52.2</v>
+        <v>32.8</v>
       </c>
       <c r="D151" t="n">
-        <v>5101.9835</v>
+        <v>9021.01</v>
       </c>
       <c r="E151" t="n">
-        <v>54.9</v>
+        <v>41.7</v>
       </c>
       <c r="F151" t="n">
-        <v>25863.9777</v>
+        <v>45723.9843</v>
       </c>
       <c r="G151" t="n">
-        <v>52.8</v>
+        <v>34.4</v>
+      </c>
+      <c r="H151" t="n">
+        <v>4966.837300000003</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1208.3044</v>
+      </c>
+      <c r="J151" t="n">
+        <v>6175.141699999993</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>26723.6889</v>
+        <v>43358.4094</v>
       </c>
       <c r="C152" t="n">
-        <v>42.5</v>
+        <v>31.7</v>
       </c>
       <c r="D152" t="n">
-        <v>6652.7175</v>
+        <v>10669.7218</v>
       </c>
       <c r="E152" t="n">
-        <v>46.1</v>
+        <v>43.5</v>
       </c>
       <c r="F152" t="n">
-        <v>33376.4064</v>
+        <v>54028.1312</v>
       </c>
       <c r="G152" t="n">
-        <v>43.2</v>
+        <v>33.9</v>
+      </c>
+      <c r="H152" t="n">
+        <v>6655.435099999995</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1648.711799999999</v>
+      </c>
+      <c r="J152" t="n">
+        <v>8304.146900000007</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>31736.137</v>
+        <v>49184.5782</v>
       </c>
       <c r="C153" t="n">
-        <v>36.8</v>
+        <v>30.5</v>
       </c>
       <c r="D153" t="n">
-        <v>7812.7056</v>
+        <v>12053.0544</v>
       </c>
       <c r="E153" t="n">
-        <v>41.9</v>
+        <v>39.9</v>
       </c>
       <c r="F153" t="n">
-        <v>39548.8426</v>
+        <v>61237.6326</v>
       </c>
       <c r="G153" t="n">
-        <v>37.8</v>
+        <v>32.3</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5826.168800000007</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1383.332600000002</v>
+      </c>
+      <c r="J153" t="n">
+        <v>7209.501399999994</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>36702.9743</v>
+        <v>56099.1321</v>
       </c>
       <c r="C154" t="n">
-        <v>32.8</v>
+        <v>29.3</v>
       </c>
       <c r="D154" t="n">
-        <v>9021.01</v>
+        <v>13846.8634</v>
       </c>
       <c r="E154" t="n">
-        <v>41.7</v>
+        <v>36.8</v>
       </c>
       <c r="F154" t="n">
-        <v>45723.9843</v>
+        <v>69945.9955</v>
       </c>
       <c r="G154" t="n">
-        <v>34.4</v>
+        <v>30.7</v>
+      </c>
+      <c r="H154" t="n">
+        <v>6914.553899999999</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1793.808999999999</v>
+      </c>
+      <c r="J154" t="n">
+        <v>8708.362900000007</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>43358.4094</v>
+        <v>64545.9821</v>
       </c>
       <c r="C155" t="n">
-        <v>31.7</v>
+        <v>25.3</v>
       </c>
       <c r="D155" t="n">
-        <v>10669.7218</v>
+        <v>16882.3021</v>
       </c>
       <c r="E155" t="n">
-        <v>43.5</v>
+        <v>30.6</v>
       </c>
       <c r="F155" t="n">
-        <v>54028.1312</v>
+        <v>81428.28419999999</v>
       </c>
       <c r="G155" t="n">
-        <v>33.9</v>
+        <v>26.3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>8446.849999999999</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3035.438700000001</v>
+      </c>
+      <c r="J155" t="n">
+        <v>11482.28869999999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>44942.731</v>
+        <v>5673.0449</v>
       </c>
       <c r="C156" t="n">
-        <v>-8.6</v>
+        <v>-4.5</v>
       </c>
       <c r="D156" t="n">
-        <v>11442.1984</v>
+        <v>1417.3758</v>
       </c>
       <c r="E156" t="n">
-        <v>-5.1</v>
+        <v>-0.4</v>
       </c>
       <c r="F156" t="n">
-        <v>56384.9294</v>
+        <v>7090.4207</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.9</v>
+        <v>-3.7</v>
+      </c>
+      <c r="H156" t="n">
+        <v>5673.0449</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1417.3758</v>
+      </c>
+      <c r="J156" t="n">
+        <v>7090.4207</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>51383.6774</v>
+        <v>10524.684</v>
       </c>
       <c r="C157" t="n">
-        <v>-8.4</v>
+        <v>-6</v>
       </c>
       <c r="D157" t="n">
-        <v>13096.9063</v>
+        <v>2738.2761</v>
       </c>
       <c r="E157" t="n">
-        <v>-5.4</v>
+        <v>-1.9</v>
       </c>
       <c r="F157" t="n">
-        <v>64480.5837</v>
+        <v>13262.9601</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.8</v>
+        <v>-5.2</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4851.639099999999</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1320.9003</v>
+      </c>
+      <c r="J157" t="n">
+        <v>6172.539400000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>60210.2626</v>
+        <v>14546.734</v>
       </c>
       <c r="C158" t="n">
-        <v>-6.7</v>
+        <v>-8.6</v>
       </c>
       <c r="D158" t="n">
-        <v>16082.1471</v>
+        <v>3759.8298</v>
       </c>
       <c r="E158" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="F158" t="n">
-        <v>76292.4097</v>
+        <v>18306.5638</v>
       </c>
       <c r="G158" t="n">
-        <v>-6.3</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4022.050000000001</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1021.5537</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5043.6037</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5673.0449</v>
+        <v>18914.3823</v>
       </c>
       <c r="C159" t="n">
-        <v>-4.5</v>
+        <v>-8.9</v>
       </c>
       <c r="D159" t="n">
-        <v>1417.3758</v>
+        <v>4759.2601</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.4</v>
+        <v>-6.7</v>
       </c>
       <c r="F159" t="n">
-        <v>7090.4207</v>
+        <v>23673.6424</v>
       </c>
       <c r="G159" t="n">
-        <v>-3.7</v>
+        <v>-8.5</v>
+      </c>
+      <c r="H159" t="n">
+        <v>4367.648300000001</v>
+      </c>
+      <c r="I159" t="n">
+        <v>999.4303000000004</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5367.078600000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10524.684</v>
+        <v>24747.2409</v>
       </c>
       <c r="C160" t="n">
-        <v>-6</v>
+        <v>-7.4</v>
       </c>
       <c r="D160" t="n">
-        <v>2738.2761</v>
+        <v>6385.572</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.9</v>
+        <v>-4</v>
       </c>
       <c r="F160" t="n">
-        <v>13262.9601</v>
+        <v>31132.8129</v>
       </c>
       <c r="G160" t="n">
-        <v>-5.2</v>
+        <v>-6.7</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5832.8586</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1626.3119</v>
+      </c>
+      <c r="J160" t="n">
+        <v>7459.1705</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>14546.734</v>
+        <v>28882.9847</v>
       </c>
       <c r="C161" t="n">
-        <v>-8.6</v>
+        <v>-9</v>
       </c>
       <c r="D161" t="n">
-        <v>3759.8298</v>
+        <v>7432.1526</v>
       </c>
       <c r="E161" t="n">
-        <v>-4.5</v>
+        <v>-4.9</v>
       </c>
       <c r="F161" t="n">
-        <v>18306.5638</v>
+        <v>36315.1373</v>
       </c>
       <c r="G161" t="n">
-        <v>-7.8</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>4135.7438</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1046.5806</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5182.324400000001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>18914.3823</v>
+        <v>33208.8803</v>
       </c>
       <c r="C162" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>8452.127899999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>41661.0082</v>
+      </c>
+      <c r="G162" t="n">
         <v>-8.9</v>
       </c>
-      <c r="D162" t="n">
-        <v>4759.2601</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="F162" t="n">
-        <v>23673.6424</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-8.5</v>
+      <c r="H162" t="n">
+        <v>4325.895599999996</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1019.975299999999</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5345.870899999994</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>24747.2409</v>
+        <v>39196.1643</v>
       </c>
       <c r="C163" t="n">
-        <v>-7.4</v>
+        <v>-9.6</v>
       </c>
       <c r="D163" t="n">
-        <v>6385.572</v>
+        <v>10030.8411</v>
       </c>
       <c r="E163" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F163" t="n">
-        <v>31132.8129</v>
+        <v>49227.0054</v>
       </c>
       <c r="G163" t="n">
-        <v>-6.7</v>
+        <v>-8.9</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5987.284</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1578.7132</v>
+      </c>
+      <c r="J163" t="n">
+        <v>7565.997200000005</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>28882.9847</v>
+        <v>44942.731</v>
       </c>
       <c r="C164" t="n">
-        <v>-9</v>
+        <v>-8.6</v>
       </c>
       <c r="D164" t="n">
-        <v>7432.1526</v>
+        <v>11442.1984</v>
       </c>
       <c r="E164" t="n">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="F164" t="n">
-        <v>36315.1373</v>
+        <v>56384.9294</v>
       </c>
       <c r="G164" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.9</v>
+      </c>
+      <c r="H164" t="n">
+        <v>5746.566700000003</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1411.3573</v>
+      </c>
+      <c r="J164" t="n">
+        <v>7157.923999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>33208.8803</v>
+        <v>51383.6774</v>
       </c>
       <c r="C165" t="n">
-        <v>-9.5</v>
+        <v>-8.4</v>
       </c>
       <c r="D165" t="n">
-        <v>8452.127899999999</v>
+        <v>13096.9063</v>
       </c>
       <c r="E165" t="n">
-        <v>-6.3</v>
+        <v>-5.4</v>
       </c>
       <c r="F165" t="n">
-        <v>41661.0082</v>
+        <v>64480.5837</v>
       </c>
       <c r="G165" t="n">
-        <v>-8.9</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H165" t="n">
+        <v>6440.946400000001</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1654.707900000001</v>
+      </c>
+      <c r="J165" t="n">
+        <v>8095.654300000002</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>39196.1643</v>
+        <v>60210.2626</v>
       </c>
       <c r="C166" t="n">
-        <v>-9.6</v>
+        <v>-6.7</v>
       </c>
       <c r="D166" t="n">
-        <v>10030.8411</v>
+        <v>16082.1471</v>
       </c>
       <c r="E166" t="n">
-        <v>-6</v>
+        <v>-4.7</v>
       </c>
       <c r="F166" t="n">
-        <v>49227.0054</v>
+        <v>76292.4097</v>
       </c>
       <c r="G166" t="n">
-        <v>-8.9</v>
+        <v>-6.3</v>
+      </c>
+      <c r="H166" t="n">
+        <v>8826.585200000001</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2985.2408</v>
+      </c>
+      <c r="J166" t="n">
+        <v>11811.826</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>51101.5962</v>
+        <v>4680.4407</v>
       </c>
       <c r="C167" t="n">
-        <v>13.7</v>
+        <v>-17.5</v>
       </c>
       <c r="D167" t="n">
-        <v>13688.1758</v>
+        <v>1291.8475</v>
       </c>
       <c r="E167" t="n">
-        <v>19.6</v>
+        <v>-8.9</v>
       </c>
       <c r="F167" t="n">
-        <v>64789.772</v>
+        <v>5972.2882</v>
       </c>
       <c r="G167" t="n">
-        <v>14.9</v>
+        <v>-15.8</v>
+      </c>
+      <c r="H167" t="n">
+        <v>4680.4407</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1291.8475</v>
+      </c>
+      <c r="J167" t="n">
+        <v>5972.2882</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>58624.8748</v>
+        <v>9409.553</v>
       </c>
       <c r="C168" t="n">
-        <v>14.1</v>
+        <v>-10.6</v>
       </c>
       <c r="D168" t="n">
-        <v>15897.3135</v>
+        <v>2613.5228</v>
       </c>
       <c r="E168" t="n">
-        <v>21.4</v>
+        <v>-4.6</v>
       </c>
       <c r="F168" t="n">
-        <v>74522.18829999999</v>
+        <v>12023.0758</v>
       </c>
       <c r="G168" t="n">
-        <v>15.6</v>
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>4729.1123</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1321.6753</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6050.787600000001</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>68052.4966</v>
+        <v>13979.9608</v>
       </c>
       <c r="C169" t="n">
-        <v>13</v>
+        <v>-3.9</v>
       </c>
       <c r="D169" t="n">
-        <v>19228.3409</v>
+        <v>3758.7614</v>
       </c>
       <c r="E169" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>87280.83749999999</v>
+        <v>17738.7222</v>
       </c>
       <c r="G169" t="n">
-        <v>14.4</v>
+        <v>-3.1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>4570.407800000001</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1145.2386</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5715.6464</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4680.4407</v>
+        <v>19270.6209</v>
       </c>
       <c r="C170" t="n">
-        <v>-17.5</v>
+        <v>1.9</v>
       </c>
       <c r="D170" t="n">
-        <v>1291.8475</v>
+        <v>5137.9953</v>
       </c>
       <c r="E170" t="n">
-        <v>-8.9</v>
+        <v>8</v>
       </c>
       <c r="F170" t="n">
-        <v>5972.2882</v>
+        <v>24408.6162</v>
       </c>
       <c r="G170" t="n">
-        <v>-15.8</v>
+        <v>3.1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>5290.660100000001</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1379.2339</v>
+      </c>
+      <c r="J170" t="n">
+        <v>6669.894</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>9409.553</v>
+        <v>26987.4543</v>
       </c>
       <c r="C171" t="n">
-        <v>-10.6</v>
+        <v>9.1</v>
       </c>
       <c r="D171" t="n">
-        <v>2613.5228</v>
+        <v>7271.7527</v>
       </c>
       <c r="E171" t="n">
-        <v>-4.6</v>
+        <v>13.9</v>
       </c>
       <c r="F171" t="n">
-        <v>12023.0758</v>
+        <v>34259.207</v>
       </c>
       <c r="G171" t="n">
-        <v>-9.300000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7716.8334</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2133.7574</v>
+      </c>
+      <c r="J171" t="n">
+        <v>9850.590800000002</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>13979.9608</v>
+        <v>32556.5517</v>
       </c>
       <c r="C172" t="n">
-        <v>-3.9</v>
+        <v>12.7</v>
       </c>
       <c r="D172" t="n">
-        <v>3758.7614</v>
+        <v>8614.2091</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="F172" t="n">
-        <v>17738.7222</v>
+        <v>41170.7608</v>
       </c>
       <c r="G172" t="n">
-        <v>-3.1</v>
+        <v>13.4</v>
+      </c>
+      <c r="H172" t="n">
+        <v>5569.097399999999</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1342.4564</v>
+      </c>
+      <c r="J172" t="n">
+        <v>6911.553799999994</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>19270.6209</v>
+        <v>37954.4453</v>
       </c>
       <c r="C173" t="n">
-        <v>1.9</v>
+        <v>14.3</v>
       </c>
       <c r="D173" t="n">
-        <v>5137.9953</v>
+        <v>10087.1176</v>
       </c>
       <c r="E173" t="n">
-        <v>8</v>
+        <v>19.3</v>
       </c>
       <c r="F173" t="n">
-        <v>24408.6162</v>
+        <v>48041.5629</v>
       </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>15.3</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5397.893599999999</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1472.9085</v>
+      </c>
+      <c r="J173" t="n">
+        <v>6870.802100000001</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>26987.4543</v>
+        <v>44696.4452</v>
       </c>
       <c r="C174" t="n">
-        <v>9.1</v>
+        <v>14</v>
       </c>
       <c r="D174" t="n">
-        <v>7271.7527</v>
+        <v>12048.3626</v>
       </c>
       <c r="E174" t="n">
-        <v>13.9</v>
+        <v>20.1</v>
       </c>
       <c r="F174" t="n">
-        <v>34259.207</v>
+        <v>56745</v>
       </c>
       <c r="G174" t="n">
-        <v>10</v>
+        <v>15.3</v>
+      </c>
+      <c r="H174" t="n">
+        <v>6741.999900000003</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1961.245000000001</v>
+      </c>
+      <c r="J174" t="n">
+        <v>8703.437100000003</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>32556.5517</v>
+        <v>51101.5962</v>
       </c>
       <c r="C175" t="n">
-        <v>12.7</v>
+        <v>13.7</v>
       </c>
       <c r="D175" t="n">
-        <v>8614.2091</v>
+        <v>13688.1758</v>
       </c>
       <c r="E175" t="n">
-        <v>15.9</v>
+        <v>19.6</v>
       </c>
       <c r="F175" t="n">
-        <v>41170.7608</v>
+        <v>64789.772</v>
       </c>
       <c r="G175" t="n">
-        <v>13.4</v>
+        <v>14.9</v>
+      </c>
+      <c r="H175" t="n">
+        <v>6405.150999999998</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1639.813200000001</v>
+      </c>
+      <c r="J175" t="n">
+        <v>8044.771999999997</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>37954.4453</v>
+        <v>58624.8748</v>
       </c>
       <c r="C176" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="D176" t="n">
-        <v>10087.1176</v>
+        <v>15897.3135</v>
       </c>
       <c r="E176" t="n">
-        <v>19.3</v>
+        <v>21.4</v>
       </c>
       <c r="F176" t="n">
-        <v>48041.5629</v>
+        <v>74522.18829999999</v>
       </c>
       <c r="G176" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
+      </c>
+      <c r="H176" t="n">
+        <v>7523.278599999998</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2209.137699999999</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9732.416299999997</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>44696.4452</v>
+        <v>68052.4966</v>
       </c>
       <c r="C177" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D177" t="n">
-        <v>12048.3626</v>
+        <v>19228.3409</v>
       </c>
       <c r="E177" t="n">
-        <v>20.1</v>
+        <v>19.6</v>
       </c>
       <c r="F177" t="n">
-        <v>56745</v>
+        <v>87280.83749999999</v>
       </c>
       <c r="G177" t="n">
-        <v>15.3</v>
+        <v>14.4</v>
+      </c>
+      <c r="H177" t="n">
+        <v>9427.621800000001</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3331.027399999999</v>
+      </c>
+      <c r="J177" t="n">
+        <v>12758.6492</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>72909.5552</v>
+        <v>6693.7084</v>
       </c>
       <c r="C178" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="D178" t="n">
-        <v>18572.5656</v>
+        <v>1883.1035</v>
       </c>
       <c r="E178" t="n">
-        <v>35.7</v>
+        <v>45.8</v>
       </c>
       <c r="F178" t="n">
-        <v>91482.1208</v>
+        <v>8576.811900000001</v>
       </c>
       <c r="G178" t="n">
-        <v>41.2</v>
+        <v>43.6</v>
+      </c>
+      <c r="H178" t="n">
+        <v>6693.7084</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1883.1035</v>
+      </c>
+      <c r="J178" t="n">
+        <v>8576.811900000001</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>81312.42</v>
+        <v>14504.9409</v>
       </c>
       <c r="C179" t="n">
-        <v>38.7</v>
+        <v>54.2</v>
       </c>
       <c r="D179" t="n">
-        <v>21190.2537</v>
+        <v>4019.3242</v>
       </c>
       <c r="E179" t="n">
-        <v>33.3</v>
+        <v>53.8</v>
       </c>
       <c r="F179" t="n">
-        <v>102502.6737</v>
+        <v>18524.2651</v>
       </c>
       <c r="G179" t="n">
-        <v>37.5</v>
+        <v>54.1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>7811.232499999999</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2136.2207</v>
+      </c>
+      <c r="J179" t="n">
+        <v>9947.4532</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>92472.61840000001</v>
+        <v>21808.3722</v>
       </c>
       <c r="C180" t="n">
-        <v>35.9</v>
+        <v>56</v>
       </c>
       <c r="D180" t="n">
-        <v>25154.4291</v>
+        <v>5847.2806</v>
       </c>
       <c r="E180" t="n">
-        <v>30.8</v>
+        <v>55.6</v>
       </c>
       <c r="F180" t="n">
-        <v>117627</v>
+        <v>27655.6528</v>
       </c>
       <c r="G180" t="n">
-        <v>34.8</v>
+        <v>55.9</v>
+      </c>
+      <c r="H180" t="n">
+        <v>7303.431300000002</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1827.9564</v>
+      </c>
+      <c r="J180" t="n">
+        <v>9131.387699999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>6693.7084</v>
+        <v>29050.6321</v>
       </c>
       <c r="C181" t="n">
-        <v>43</v>
+        <v>50.8</v>
       </c>
       <c r="D181" t="n">
-        <v>1883.1035</v>
+        <v>7724.862</v>
       </c>
       <c r="E181" t="n">
-        <v>45.8</v>
+        <v>50.3</v>
       </c>
       <c r="F181" t="n">
-        <v>8576.811900000001</v>
+        <v>36775.4941</v>
       </c>
       <c r="G181" t="n">
-        <v>43.6</v>
+        <v>50.7</v>
+      </c>
+      <c r="H181" t="n">
+        <v>7242.259899999997</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1877.5814</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9119.841300000004</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>14504.9409</v>
+        <v>38579.9949</v>
       </c>
       <c r="C182" t="n">
-        <v>54.2</v>
+        <v>43</v>
       </c>
       <c r="D182" t="n">
-        <v>4019.3242</v>
+        <v>10102.3557</v>
       </c>
       <c r="E182" t="n">
-        <v>53.8</v>
+        <v>38.9</v>
       </c>
       <c r="F182" t="n">
-        <v>18524.2651</v>
+        <v>48682.3506</v>
       </c>
       <c r="G182" t="n">
-        <v>54.1</v>
+        <v>42.1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>9529.362799999999</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2377.4937</v>
+      </c>
+      <c r="J182" t="n">
+        <v>11906.85649999999</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>21808.3722</v>
+        <v>45620.6548</v>
       </c>
       <c r="C183" t="n">
-        <v>56</v>
+        <v>40.1</v>
       </c>
       <c r="D183" t="n">
-        <v>5847.2806</v>
+        <v>11948.3932</v>
       </c>
       <c r="E183" t="n">
-        <v>55.6</v>
+        <v>38.7</v>
       </c>
       <c r="F183" t="n">
-        <v>27655.6528</v>
+        <v>57569.048</v>
       </c>
       <c r="G183" t="n">
-        <v>55.9</v>
+        <v>39.8</v>
+      </c>
+      <c r="H183" t="n">
+        <v>7040.659899999999</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1846.0375</v>
+      </c>
+      <c r="J183" t="n">
+        <v>8886.697400000005</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>29050.6321</v>
+        <v>52912.1236</v>
       </c>
       <c r="C184" t="n">
-        <v>50.8</v>
+        <v>39.4</v>
       </c>
       <c r="D184" t="n">
-        <v>7724.862</v>
+        <v>13710.8542</v>
       </c>
       <c r="E184" t="n">
-        <v>50.3</v>
+        <v>35.9</v>
       </c>
       <c r="F184" t="n">
-        <v>36775.4941</v>
+        <v>66622.97779999999</v>
       </c>
       <c r="G184" t="n">
-        <v>50.7</v>
+        <v>38.7</v>
+      </c>
+      <c r="H184" t="n">
+        <v>7291.468800000002</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1762.460999999999</v>
+      </c>
+      <c r="J184" t="n">
+        <v>9053.929799999991</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>38579.9949</v>
+        <v>63904.2698</v>
       </c>
       <c r="C185" t="n">
         <v>43</v>
       </c>
       <c r="D185" t="n">
-        <v>10102.3557</v>
+        <v>16303.8875</v>
       </c>
       <c r="E185" t="n">
-        <v>38.9</v>
+        <v>35.3</v>
       </c>
       <c r="F185" t="n">
-        <v>48682.3506</v>
+        <v>80208.15730000001</v>
       </c>
       <c r="G185" t="n">
-        <v>42.1</v>
+        <v>41.3</v>
+      </c>
+      <c r="H185" t="n">
+        <v>10992.1462</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2593.033300000001</v>
+      </c>
+      <c r="J185" t="n">
+        <v>13585.17950000001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>45620.6548</v>
+        <v>72909.5552</v>
       </c>
       <c r="C186" t="n">
-        <v>40.1</v>
+        <v>42.7</v>
       </c>
       <c r="D186" t="n">
-        <v>11948.3932</v>
+        <v>18572.5656</v>
       </c>
       <c r="E186" t="n">
-        <v>38.7</v>
+        <v>35.7</v>
       </c>
       <c r="F186" t="n">
-        <v>57569.048</v>
+        <v>91482.1208</v>
       </c>
       <c r="G186" t="n">
-        <v>39.8</v>
+        <v>41.2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>9005.285400000001</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2268.678100000001</v>
+      </c>
+      <c r="J186" t="n">
+        <v>11273.9635</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>52912.1236</v>
+        <v>81312.42</v>
       </c>
       <c r="C187" t="n">
-        <v>39.4</v>
+        <v>38.7</v>
       </c>
       <c r="D187" t="n">
-        <v>13710.8542</v>
+        <v>21190.2537</v>
       </c>
       <c r="E187" t="n">
-        <v>35.9</v>
+        <v>33.3</v>
       </c>
       <c r="F187" t="n">
-        <v>66622.97779999999</v>
+        <v>102502.6737</v>
       </c>
       <c r="G187" t="n">
-        <v>38.7</v>
+        <v>37.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>8402.864799999996</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2617.688099999999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>11020.5529</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>63904.2698</v>
+        <v>92472.61840000001</v>
       </c>
       <c r="C188" t="n">
-        <v>43</v>
+        <v>35.9</v>
       </c>
       <c r="D188" t="n">
-        <v>16303.8875</v>
+        <v>25154.4291</v>
       </c>
       <c r="E188" t="n">
-        <v>35.3</v>
+        <v>30.8</v>
       </c>
       <c r="F188" t="n">
-        <v>80208.15730000001</v>
+        <v>117627</v>
       </c>
       <c r="G188" t="n">
-        <v>41.3</v>
+        <v>34.8</v>
+      </c>
+      <c r="H188" t="n">
+        <v>11160.19840000001</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3964.1754</v>
+      </c>
+      <c r="J188" t="n">
+        <v>15124.3263</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>82702.3651</v>
+        <v>8526.6507</v>
       </c>
       <c r="C189" t="n">
-        <v>13.4</v>
+        <v>27.4</v>
       </c>
       <c r="D189" t="n">
-        <v>20287.9777</v>
+        <v>2278.8851</v>
       </c>
       <c r="E189" t="n">
-        <v>9.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="F189" t="n">
-        <v>102990.3428</v>
+        <v>10805.5358</v>
       </c>
       <c r="G189" t="n">
-        <v>12.6</v>
+        <v>26</v>
+      </c>
+      <c r="H189" t="n">
+        <v>8526.6507</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2278.8851</v>
+      </c>
+      <c r="J189" t="n">
+        <v>10805.5358</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>92866.8417</v>
+        <v>18472.4979</v>
       </c>
       <c r="C190" t="n">
-        <v>14.2</v>
+        <v>27.4</v>
       </c>
       <c r="D190" t="n">
-        <v>22613.7562</v>
+        <v>4709.7549</v>
       </c>
       <c r="E190" t="n">
-        <v>6.7</v>
+        <v>17.2</v>
       </c>
       <c r="F190" t="n">
-        <v>115480.5979</v>
+        <v>23182.2528</v>
       </c>
       <c r="G190" t="n">
-        <v>12.7</v>
+        <v>25.1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>9945.847199999998</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2430.8698</v>
+      </c>
+      <c r="J190" t="n">
+        <v>12376.717</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>107415.388</v>
+        <v>26568.6092</v>
       </c>
       <c r="C191" t="n">
-        <v>16.2</v>
+        <v>21.8</v>
       </c>
       <c r="D191" t="n">
-        <v>26285.9184</v>
+        <v>6654.0048</v>
       </c>
       <c r="E191" t="n">
-        <v>4.5</v>
+        <v>13.8</v>
       </c>
       <c r="F191" t="n">
-        <v>133701.3064</v>
+        <v>33222.614</v>
       </c>
       <c r="G191" t="n">
-        <v>13.7</v>
+        <v>20.1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>8096.1113</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1944.2499</v>
+      </c>
+      <c r="J191" t="n">
+        <v>10040.3612</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>8526.6507</v>
+        <v>34857.1888</v>
       </c>
       <c r="C192" t="n">
-        <v>27.4</v>
+        <v>20</v>
       </c>
       <c r="D192" t="n">
-        <v>2278.8851</v>
+        <v>8774.5396</v>
       </c>
       <c r="E192" t="n">
-        <v>21</v>
+        <v>13.6</v>
       </c>
       <c r="F192" t="n">
-        <v>10805.5358</v>
+        <v>43631.7284</v>
       </c>
       <c r="G192" t="n">
-        <v>26</v>
+        <v>18.6</v>
+      </c>
+      <c r="H192" t="n">
+        <v>8288.579600000005</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2120.5348</v>
+      </c>
+      <c r="J192" t="n">
+        <v>10409.1144</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>18472.4979</v>
+        <v>47197.2463</v>
       </c>
       <c r="C193" t="n">
-        <v>27.4</v>
+        <v>22.3</v>
       </c>
       <c r="D193" t="n">
-        <v>4709.7549</v>
+        <v>11954.5827</v>
       </c>
       <c r="E193" t="n">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="F193" t="n">
-        <v>23182.2528</v>
+        <v>59151.829</v>
       </c>
       <c r="G193" t="n">
-        <v>25.1</v>
+        <v>21.5</v>
+      </c>
+      <c r="H193" t="n">
+        <v>12340.0575</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3180.043100000001</v>
+      </c>
+      <c r="J193" t="n">
+        <v>15520.1006</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>26568.6092</v>
+        <v>54694.6143</v>
       </c>
       <c r="C194" t="n">
-        <v>21.8</v>
+        <v>19.9</v>
       </c>
       <c r="D194" t="n">
-        <v>6654.0048</v>
+        <v>13766.7488</v>
       </c>
       <c r="E194" t="n">
-        <v>13.8</v>
+        <v>15.2</v>
       </c>
       <c r="F194" t="n">
-        <v>33222.614</v>
+        <v>68461.3631</v>
       </c>
       <c r="G194" t="n">
-        <v>20.1</v>
+        <v>18.9</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7497.368000000002</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1812.166099999999</v>
+      </c>
+      <c r="J194" t="n">
+        <v>9309.534100000004</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>34857.1888</v>
+        <v>62480.9482</v>
       </c>
       <c r="C195" t="n">
-        <v>20</v>
+        <v>18.1</v>
       </c>
       <c r="D195" t="n">
-        <v>8774.5396</v>
+        <v>15614.6434</v>
       </c>
       <c r="E195" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="F195" t="n">
-        <v>43631.7284</v>
+        <v>78095.5916</v>
       </c>
       <c r="G195" t="n">
-        <v>18.6</v>
+        <v>17.2</v>
+      </c>
+      <c r="H195" t="n">
+        <v>7786.333899999998</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1847.894600000001</v>
+      </c>
+      <c r="J195" t="n">
+        <v>9634.228499999997</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>47197.2463</v>
+        <v>73628.76029999999</v>
       </c>
       <c r="C196" t="n">
-        <v>22.3</v>
+        <v>15.2</v>
       </c>
       <c r="D196" t="n">
-        <v>11954.5827</v>
+        <v>18274.7732</v>
       </c>
       <c r="E196" t="n">
-        <v>18.3</v>
+        <v>12.1</v>
       </c>
       <c r="F196" t="n">
-        <v>59151.829</v>
+        <v>91903.53350000001</v>
       </c>
       <c r="G196" t="n">
-        <v>21.5</v>
+        <v>14.6</v>
+      </c>
+      <c r="H196" t="n">
+        <v>11147.8121</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2660.129799999999</v>
+      </c>
+      <c r="J196" t="n">
+        <v>13807.94190000001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>54694.6143</v>
+        <v>82702.3651</v>
       </c>
       <c r="C197" t="n">
-        <v>19.9</v>
+        <v>13.4</v>
       </c>
       <c r="D197" t="n">
-        <v>13766.7488</v>
+        <v>20287.9777</v>
       </c>
       <c r="E197" t="n">
-        <v>15.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F197" t="n">
-        <v>68461.3631</v>
+        <v>102990.3428</v>
       </c>
       <c r="G197" t="n">
-        <v>18.9</v>
+        <v>12.6</v>
+      </c>
+      <c r="H197" t="n">
+        <v>9073.604800000001</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2013.2045</v>
+      </c>
+      <c r="J197" t="n">
+        <v>11086.80929999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>62480.9482</v>
+        <v>92866.8417</v>
       </c>
       <c r="C198" t="n">
-        <v>18.1</v>
+        <v>14.2</v>
       </c>
       <c r="D198" t="n">
-        <v>15614.6434</v>
+        <v>22613.7562</v>
       </c>
       <c r="E198" t="n">
-        <v>13.9</v>
+        <v>6.7</v>
       </c>
       <c r="F198" t="n">
-        <v>78095.5916</v>
+        <v>115480.5979</v>
       </c>
       <c r="G198" t="n">
-        <v>17.2</v>
+        <v>12.7</v>
+      </c>
+      <c r="H198" t="n">
+        <v>10164.47660000001</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2325.7785</v>
+      </c>
+      <c r="J198" t="n">
+        <v>12490.25509999999</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>73628.76029999999</v>
+        <v>107415.388</v>
       </c>
       <c r="C199" t="n">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="D199" t="n">
-        <v>18274.7732</v>
+        <v>26285.9184</v>
       </c>
       <c r="E199" t="n">
-        <v>12.1</v>
+        <v>4.5</v>
       </c>
       <c r="F199" t="n">
-        <v>91903.53350000001</v>
+        <v>133701.3064</v>
       </c>
       <c r="G199" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
+      </c>
+      <c r="H199" t="n">
+        <v>14548.5463</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3672.162199999999</v>
+      </c>
+      <c r="J199" t="n">
+        <v>18220.70850000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>99046.6156</v>
+        <v>10531.3897</v>
       </c>
       <c r="C200" t="n">
-        <v>19.8</v>
+        <v>23.5</v>
       </c>
       <c r="D200" t="n">
-        <v>16867.0559</v>
+        <v>1922.2593</v>
       </c>
       <c r="E200" t="n">
-        <v>-16.9</v>
+        <v>-15.6</v>
       </c>
       <c r="F200" t="n">
-        <v>115913.6715</v>
+        <v>12453.649</v>
       </c>
       <c r="G200" t="n">
-        <v>12.5</v>
+        <v>15.3</v>
+      </c>
+      <c r="H200" t="n">
+        <v>10531.3897</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1922.2593</v>
+      </c>
+      <c r="J200" t="n">
+        <v>12453.649</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>110958.0869</v>
+        <v>21587.973</v>
       </c>
       <c r="C201" t="n">
-        <v>19.5</v>
+        <v>16.9</v>
       </c>
       <c r="D201" t="n">
-        <v>18550.0087</v>
+        <v>4009.2108</v>
       </c>
       <c r="E201" t="n">
-        <v>-18</v>
+        <v>-14.9</v>
       </c>
       <c r="F201" t="n">
-        <v>129508.0956</v>
+        <v>25597.1838</v>
       </c>
       <c r="G201" t="n">
-        <v>12.1</v>
+        <v>10.4</v>
+      </c>
+      <c r="H201" t="n">
+        <v>11056.5833</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2086.9515</v>
+      </c>
+      <c r="J201" t="n">
+        <v>13143.5348</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>127773.8241</v>
+        <v>30585.7342</v>
       </c>
       <c r="C202" t="n">
-        <v>19</v>
+        <v>15.1</v>
       </c>
       <c r="D202" t="n">
-        <v>22198.9133</v>
+        <v>5636.7475</v>
       </c>
       <c r="E202" t="n">
-        <v>-15.5</v>
+        <v>-15.3</v>
       </c>
       <c r="F202" t="n">
-        <v>149972.7374</v>
+        <v>36222.4817</v>
       </c>
       <c r="G202" t="n">
-        <v>12.2</v>
+        <v>9</v>
+      </c>
+      <c r="H202" t="n">
+        <v>8997.761199999997</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1627.536700000001</v>
+      </c>
+      <c r="J202" t="n">
+        <v>10625.2979</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>10531.3897</v>
+        <v>41346.0652</v>
       </c>
       <c r="C203" t="n">
-        <v>23.5</v>
+        <v>18.6</v>
       </c>
       <c r="D203" t="n">
-        <v>1922.2593</v>
+        <v>7431.5053</v>
       </c>
       <c r="E203" t="n">
-        <v>-15.6</v>
+        <v>-15.3</v>
       </c>
       <c r="F203" t="n">
-        <v>12453.649</v>
+        <v>48777.5705</v>
       </c>
       <c r="G203" t="n">
-        <v>15.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="H203" t="n">
+        <v>10760.331</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1794.757799999999</v>
+      </c>
+      <c r="J203" t="n">
+        <v>12555.0888</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>21587.973</v>
+        <v>56625.1306</v>
       </c>
       <c r="C204" t="n">
-        <v>16.9</v>
+        <v>20</v>
       </c>
       <c r="D204" t="n">
-        <v>4009.2108</v>
+        <v>10320.0989</v>
       </c>
       <c r="E204" t="n">
-        <v>-14.9</v>
+        <v>-13.7</v>
       </c>
       <c r="F204" t="n">
-        <v>25597.1838</v>
+        <v>66945.2295</v>
       </c>
       <c r="G204" t="n">
-        <v>10.4</v>
+        <v>13.2</v>
+      </c>
+      <c r="H204" t="n">
+        <v>15279.0654</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2888.593600000001</v>
+      </c>
+      <c r="J204" t="n">
+        <v>18167.659</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>30585.7342</v>
+        <v>66314.8015</v>
       </c>
       <c r="C205" t="n">
-        <v>15.1</v>
+        <v>21.2</v>
       </c>
       <c r="D205" t="n">
-        <v>5636.7475</v>
+        <v>11985.3473</v>
       </c>
       <c r="E205" t="n">
-        <v>-15.3</v>
+        <v>-12.9</v>
       </c>
       <c r="F205" t="n">
-        <v>36222.4817</v>
+        <v>78300.1488</v>
       </c>
       <c r="G205" t="n">
-        <v>9</v>
+        <v>14.4</v>
+      </c>
+      <c r="H205" t="n">
+        <v>9689.670900000005</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1665.248399999999</v>
+      </c>
+      <c r="J205" t="n">
+        <v>11354.91929999999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>41346.0652</v>
+        <v>75991.18210000001</v>
       </c>
       <c r="C206" t="n">
-        <v>18.6</v>
+        <v>21.6</v>
       </c>
       <c r="D206" t="n">
-        <v>7431.5053</v>
+        <v>13404.8303</v>
       </c>
       <c r="E206" t="n">
-        <v>-15.3</v>
+        <v>-14.2</v>
       </c>
       <c r="F206" t="n">
-        <v>48777.5705</v>
+        <v>89396.01240000001</v>
       </c>
       <c r="G206" t="n">
-        <v>11.8</v>
+        <v>14.5</v>
+      </c>
+      <c r="H206" t="n">
+        <v>9676.380600000004</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1419.483</v>
+      </c>
+      <c r="J206" t="n">
+        <v>11095.86360000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>56625.1306</v>
+        <v>88734.42359999999</v>
       </c>
       <c r="C207" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="D207" t="n">
-        <v>10320.0989</v>
+        <v>15397.8076</v>
       </c>
       <c r="E207" t="n">
-        <v>-13.7</v>
+        <v>-15.7</v>
       </c>
       <c r="F207" t="n">
-        <v>66945.2295</v>
+        <v>104132.2312</v>
       </c>
       <c r="G207" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
+      </c>
+      <c r="H207" t="n">
+        <v>12743.24149999999</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1992.9773</v>
+      </c>
+      <c r="J207" t="n">
+        <v>14736.21879999999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>66314.8015</v>
+        <v>99046.6156</v>
       </c>
       <c r="C208" t="n">
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="D208" t="n">
-        <v>11985.3473</v>
+        <v>16867.0559</v>
       </c>
       <c r="E208" t="n">
-        <v>-12.9</v>
+        <v>-16.9</v>
       </c>
       <c r="F208" t="n">
-        <v>78300.1488</v>
+        <v>115913.6715</v>
       </c>
       <c r="G208" t="n">
-        <v>14.4</v>
+        <v>12.5</v>
+      </c>
+      <c r="H208" t="n">
+        <v>10312.19200000001</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1469.248299999999</v>
+      </c>
+      <c r="J208" t="n">
+        <v>11781.4403</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>75991.18210000001</v>
+        <v>110958.0869</v>
       </c>
       <c r="C209" t="n">
-        <v>21.6</v>
+        <v>19.5</v>
       </c>
       <c r="D209" t="n">
-        <v>13404.8303</v>
+        <v>18550.0087</v>
       </c>
       <c r="E209" t="n">
-        <v>-14.2</v>
+        <v>-18</v>
       </c>
       <c r="F209" t="n">
-        <v>89396.01240000001</v>
+        <v>129508.0956</v>
       </c>
       <c r="G209" t="n">
-        <v>14.5</v>
+        <v>12.1</v>
+      </c>
+      <c r="H209" t="n">
+        <v>11911.47129999999</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1682.952799999999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>13594.4241</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>88734.42359999999</v>
+        <v>127773.8241</v>
       </c>
       <c r="C210" t="n">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="D210" t="n">
-        <v>15397.8076</v>
+        <v>22198.9133</v>
       </c>
       <c r="E210" t="n">
-        <v>-15.7</v>
+        <v>-15.5</v>
       </c>
       <c r="F210" t="n">
-        <v>104132.2312</v>
+        <v>149972.7374</v>
       </c>
       <c r="G210" t="n">
-        <v>13.3</v>
+        <v>12.2</v>
+      </c>
+      <c r="H210" t="n">
+        <v>16815.7372</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3648.904600000002</v>
+      </c>
+      <c r="J210" t="n">
+        <v>20464.64180000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>109335.2612</v>
+        <v>11017.6894</v>
       </c>
       <c r="C211" t="n">
-        <v>10.4</v>
+        <v>4.6</v>
       </c>
       <c r="D211" t="n">
-        <v>15081.9836</v>
+        <v>1785.6538</v>
       </c>
       <c r="E211" t="n">
-        <v>-10.6</v>
+        <v>-7.1</v>
       </c>
       <c r="F211" t="n">
-        <v>124417.2448</v>
+        <v>12803.3432</v>
       </c>
       <c r="G211" t="n">
-        <v>7.3</v>
+        <v>2.8</v>
+      </c>
+      <c r="H211" t="n">
+        <v>11017.6894</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1785.6538</v>
+      </c>
+      <c r="J211" t="n">
+        <v>12803.3432</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>122080.5999</v>
+        <v>23353.6364</v>
       </c>
       <c r="C212" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D212" t="n">
-        <v>16925.1783</v>
+        <v>3685.1329</v>
       </c>
       <c r="E212" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="F212" t="n">
-        <v>139005.7782</v>
+        <v>27038.7693</v>
       </c>
       <c r="G212" t="n">
-        <v>7.3</v>
+        <v>5.6</v>
+      </c>
+      <c r="H212" t="n">
+        <v>12335.947</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1899.4791</v>
+      </c>
+      <c r="J212" t="n">
+        <v>14235.4261</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>139909.284</v>
+        <v>34058.1921</v>
       </c>
       <c r="C213" t="n">
-        <v>9.5</v>
+        <v>11.4</v>
       </c>
       <c r="D213" t="n">
-        <v>19815.8383</v>
+        <v>5082.6806</v>
       </c>
       <c r="E213" t="n">
-        <v>-10.7</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="F213" t="n">
-        <v>159725.1223</v>
+        <v>39140.8727</v>
       </c>
       <c r="G213" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
+      </c>
+      <c r="H213" t="n">
+        <v>10704.5557</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1397.5477</v>
+      </c>
+      <c r="J213" t="n">
+        <v>12102.1034</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>11017.6894</v>
+        <v>45105.5593</v>
       </c>
       <c r="C214" t="n">
-        <v>4.6</v>
+        <v>9.1</v>
       </c>
       <c r="D214" t="n">
-        <v>1785.6538</v>
+        <v>6667.2701</v>
       </c>
       <c r="E214" t="n">
-        <v>-7.1</v>
+        <v>-10.3</v>
       </c>
       <c r="F214" t="n">
-        <v>12803.3432</v>
+        <v>51772.8294</v>
       </c>
       <c r="G214" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
+      </c>
+      <c r="H214" t="n">
+        <v>11047.3672</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1584.5895</v>
+      </c>
+      <c r="J214" t="n">
+        <v>12631.9567</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>23353.6364</v>
+        <v>61531.9912</v>
       </c>
       <c r="C215" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D215" t="n">
-        <v>3685.1329</v>
+        <v>9166.0674</v>
       </c>
       <c r="E215" t="n">
-        <v>-8.1</v>
+        <v>-11.2</v>
       </c>
       <c r="F215" t="n">
-        <v>27038.7693</v>
+        <v>70698.0586</v>
       </c>
       <c r="G215" t="n">
         <v>5.6</v>
       </c>
+      <c r="H215" t="n">
+        <v>16426.4319</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2498.7973</v>
+      </c>
+      <c r="J215" t="n">
+        <v>18925.2292</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>34058.1921</v>
+        <v>72511.9019</v>
       </c>
       <c r="C216" t="n">
-        <v>11.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D216" t="n">
-        <v>5082.6806</v>
+        <v>10650.446</v>
       </c>
       <c r="E216" t="n">
-        <v>-9.800000000000001</v>
+        <v>-11.1</v>
       </c>
       <c r="F216" t="n">
-        <v>39140.8727</v>
+        <v>83162.34789999999</v>
       </c>
       <c r="G216" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
+      </c>
+      <c r="H216" t="n">
+        <v>10979.9107</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1484.3786</v>
+      </c>
+      <c r="J216" t="n">
+        <v>12464.28929999999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>45105.5593</v>
+        <v>83439.9191</v>
       </c>
       <c r="C217" t="n">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D217" t="n">
-        <v>6667.2701</v>
+        <v>11933.0303</v>
       </c>
       <c r="E217" t="n">
-        <v>-10.3</v>
+        <v>-11</v>
       </c>
       <c r="F217" t="n">
-        <v>51772.8294</v>
+        <v>95372.9494</v>
       </c>
       <c r="G217" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
+      </c>
+      <c r="H217" t="n">
+        <v>10928.0172</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1282.5843</v>
+      </c>
+      <c r="J217" t="n">
+        <v>12210.6015</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>61531.9912</v>
+        <v>97839.4788</v>
       </c>
       <c r="C218" t="n">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="D218" t="n">
-        <v>9166.0674</v>
+        <v>13651.8062</v>
       </c>
       <c r="E218" t="n">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="F218" t="n">
-        <v>70698.0586</v>
+        <v>111491.285</v>
       </c>
       <c r="G218" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>14399.5597</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1718.775900000001</v>
+      </c>
+      <c r="J218" t="n">
+        <v>16118.33560000001</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>72511.9019</v>
+        <v>109335.2612</v>
       </c>
       <c r="C219" t="n">
-        <v>9.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D219" t="n">
-        <v>10650.446</v>
+        <v>15081.9836</v>
       </c>
       <c r="E219" t="n">
-        <v>-11.1</v>
+        <v>-10.6</v>
       </c>
       <c r="F219" t="n">
-        <v>83162.34789999999</v>
+        <v>124417.2448</v>
       </c>
       <c r="G219" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
+      </c>
+      <c r="H219" t="n">
+        <v>11495.7824</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1430.177399999999</v>
+      </c>
+      <c r="J219" t="n">
+        <v>12925.9598</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>83439.9191</v>
+        <v>122080.5999</v>
       </c>
       <c r="C220" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="D220" t="n">
-        <v>11933.0303</v>
+        <v>16925.1783</v>
       </c>
       <c r="E220" t="n">
-        <v>-11</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="F220" t="n">
-        <v>95372.9494</v>
+        <v>139005.7782</v>
       </c>
       <c r="G220" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
+      </c>
+      <c r="H220" t="n">
+        <v>12745.33870000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1843.1947</v>
+      </c>
+      <c r="J220" t="n">
+        <v>14588.5334</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>97839.4788</v>
+        <v>139909.284</v>
       </c>
       <c r="C221" t="n">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
       <c r="D221" t="n">
-        <v>13651.8062</v>
+        <v>19815.8383</v>
       </c>
       <c r="E221" t="n">
-        <v>-11.3</v>
+        <v>-10.7</v>
       </c>
       <c r="F221" t="n">
-        <v>111491.285</v>
+        <v>159725.1223</v>
       </c>
       <c r="G221" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
+      </c>
+      <c r="H221" t="n">
+        <v>17828.68410000001</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2890.66</v>
+      </c>
+      <c r="J221" t="n">
+        <v>20719.34409999999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>116460.0388</v>
+        <v>7051.6305</v>
       </c>
       <c r="C222" t="n">
-        <v>6.5</v>
+        <v>-36</v>
       </c>
       <c r="D222" t="n">
-        <v>15205.0485</v>
+        <v>1151.8388</v>
       </c>
       <c r="E222" t="n">
-        <v>0.8</v>
+        <v>-35.5</v>
       </c>
       <c r="F222" t="n">
-        <v>131665.0873</v>
+        <v>8203.469300000001</v>
       </c>
       <c r="G222" t="n">
-        <v>5.8</v>
+        <v>-35.9</v>
+      </c>
+      <c r="H222" t="n">
+        <v>7051.6305</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1151.8388</v>
+      </c>
+      <c r="J222" t="n">
+        <v>8203.469300000001</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>131728.416</v>
+        <v>17678.969</v>
       </c>
       <c r="C223" t="n">
-        <v>7.9</v>
+        <v>-24.3</v>
       </c>
       <c r="D223" t="n">
-        <v>17240.3176</v>
+        <v>2685.8931</v>
       </c>
       <c r="E223" t="n">
-        <v>1.9</v>
+        <v>-27.1</v>
       </c>
       <c r="F223" t="n">
-        <v>148968.7336</v>
+        <v>20364.8621</v>
       </c>
       <c r="G223" t="n">
-        <v>7.2</v>
+        <v>-24.7</v>
+      </c>
+      <c r="H223" t="n">
+        <v>10627.3385</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1534.0543</v>
+      </c>
+      <c r="J223" t="n">
+        <v>12161.3928</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>153276.4467</v>
+        <v>27785.5947</v>
       </c>
       <c r="C224" t="n">
-        <v>9.6</v>
+        <v>-18.4</v>
       </c>
       <c r="D224" t="n">
-        <v>20336.2122</v>
+        <v>4077.4956</v>
       </c>
       <c r="E224" t="n">
-        <v>2.6</v>
+        <v>-19.8</v>
       </c>
       <c r="F224" t="n">
-        <v>173612.6589</v>
+        <v>31863.0903</v>
       </c>
       <c r="G224" t="n">
-        <v>8.699999999999999</v>
+        <v>-18.6</v>
+      </c>
+      <c r="H224" t="n">
+        <v>10106.6257</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1391.6025</v>
+      </c>
+      <c r="J224" t="n">
+        <v>11498.2282</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>7051.6305</v>
+        <v>40546.9998</v>
       </c>
       <c r="C225" t="n">
-        <v>-36</v>
+        <v>-10.1</v>
       </c>
       <c r="D225" t="n">
-        <v>1151.8388</v>
+        <v>5722.4803</v>
       </c>
       <c r="E225" t="n">
-        <v>-35.5</v>
+        <v>-14.2</v>
       </c>
       <c r="F225" t="n">
-        <v>8203.469300000001</v>
+        <v>46269.4801</v>
       </c>
       <c r="G225" t="n">
-        <v>-35.9</v>
+        <v>-10.6</v>
+      </c>
+      <c r="H225" t="n">
+        <v>12761.4051</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1644.9847</v>
+      </c>
+      <c r="J225" t="n">
+        <v>14406.3898</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>17678.969</v>
+        <v>58879.4599</v>
       </c>
       <c r="C226" t="n">
-        <v>-24.3</v>
+        <v>-4.3</v>
       </c>
       <c r="D226" t="n">
-        <v>2685.8931</v>
+        <v>8015.109</v>
       </c>
       <c r="E226" t="n">
-        <v>-27.1</v>
+        <v>-12.6</v>
       </c>
       <c r="F226" t="n">
-        <v>20364.8621</v>
+        <v>66894.5689</v>
       </c>
       <c r="G226" t="n">
-        <v>-24.7</v>
+        <v>-5.4</v>
+      </c>
+      <c r="H226" t="n">
+        <v>18332.4601</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2292.6287</v>
+      </c>
+      <c r="J226" t="n">
+        <v>20625.0888</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>27785.5947</v>
+        <v>71745.7586</v>
       </c>
       <c r="C227" t="n">
-        <v>-18.4</v>
+        <v>-1.1</v>
       </c>
       <c r="D227" t="n">
-        <v>4077.4956</v>
+        <v>9676.271199999999</v>
       </c>
       <c r="E227" t="n">
-        <v>-19.8</v>
+        <v>-9.1</v>
       </c>
       <c r="F227" t="n">
-        <v>31863.0903</v>
+        <v>81422.0298</v>
       </c>
       <c r="G227" t="n">
-        <v>-18.6</v>
+        <v>-2.1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>12866.2987</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1661.162199999999</v>
+      </c>
+      <c r="J227" t="n">
+        <v>14527.46090000001</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>40546.9998</v>
+        <v>85691.15429999999</v>
       </c>
       <c r="C228" t="n">
-        <v>-10.1</v>
+        <v>2.7</v>
       </c>
       <c r="D228" t="n">
-        <v>5722.4803</v>
+        <v>11251.3853</v>
       </c>
       <c r="E228" t="n">
-        <v>-14.2</v>
+        <v>-5.7</v>
       </c>
       <c r="F228" t="n">
-        <v>46269.4801</v>
+        <v>96942.5396</v>
       </c>
       <c r="G228" t="n">
-        <v>-10.6</v>
+        <v>1.6</v>
+      </c>
+      <c r="H228" t="n">
+        <v>13945.39569999999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1575.114100000001</v>
+      </c>
+      <c r="J228" t="n">
+        <v>15520.5098</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>58879.4599</v>
+        <v>102258.0562</v>
       </c>
       <c r="C229" t="n">
-        <v>-4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D229" t="n">
-        <v>8015.109</v>
+        <v>13389.2336</v>
       </c>
       <c r="E229" t="n">
-        <v>-12.6</v>
+        <v>-1.9</v>
       </c>
       <c r="F229" t="n">
-        <v>66894.5689</v>
+        <v>115647.2898</v>
       </c>
       <c r="G229" t="n">
-        <v>-5.4</v>
+        <v>3.7</v>
+      </c>
+      <c r="H229" t="n">
+        <v>16566.90190000001</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2137.8483</v>
+      </c>
+      <c r="J229" t="n">
+        <v>18704.75019999999</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>71745.7586</v>
+        <v>116460.0388</v>
       </c>
       <c r="C230" t="n">
-        <v>-1.1</v>
+        <v>6.5</v>
       </c>
       <c r="D230" t="n">
-        <v>9676.271199999999</v>
+        <v>15205.0485</v>
       </c>
       <c r="E230" t="n">
-        <v>-9.1</v>
+        <v>0.8</v>
       </c>
       <c r="F230" t="n">
-        <v>81422.0298</v>
+        <v>131665.0873</v>
       </c>
       <c r="G230" t="n">
-        <v>-2.1</v>
+        <v>5.8</v>
+      </c>
+      <c r="H230" t="n">
+        <v>14201.98259999999</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1815.814900000001</v>
+      </c>
+      <c r="J230" t="n">
+        <v>16017.79750000002</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>85691.15429999999</v>
+        <v>131728.416</v>
       </c>
       <c r="C231" t="n">
-        <v>2.7</v>
+        <v>7.9</v>
       </c>
       <c r="D231" t="n">
-        <v>11251.3853</v>
+        <v>17240.3176</v>
       </c>
       <c r="E231" t="n">
-        <v>-5.7</v>
+        <v>1.9</v>
       </c>
       <c r="F231" t="n">
-        <v>96942.5396</v>
+        <v>148968.7336</v>
       </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
+      </c>
+      <c r="H231" t="n">
+        <v>15268.3772</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2035.269099999998</v>
+      </c>
+      <c r="J231" t="n">
+        <v>17303.64629999999</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>102258.0562</v>
+        <v>153276.4467</v>
       </c>
       <c r="C232" t="n">
-        <v>4.5</v>
+        <v>9.6</v>
       </c>
       <c r="D232" t="n">
-        <v>13389.2336</v>
+        <v>20336.2122</v>
       </c>
       <c r="E232" t="n">
-        <v>-1.9</v>
+        <v>2.6</v>
       </c>
       <c r="F232" t="n">
-        <v>115647.2898</v>
+        <v>173612.6589</v>
       </c>
       <c r="G232" t="n">
-        <v>3.7</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>21548.0307</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3095.894600000003</v>
+      </c>
+      <c r="J232" t="n">
+        <v>24643.9253</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>131359.5755</v>
+        <v>16891.6657</v>
       </c>
       <c r="C233" t="n">
-        <v>12.8</v>
+        <v>139.5</v>
       </c>
       <c r="D233" t="n">
-        <v>15825.0812</v>
+        <v>2259.0724</v>
       </c>
       <c r="E233" t="n">
-        <v>4.1</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F233" t="n">
-        <v>147184.6567</v>
+        <v>19150.7381</v>
       </c>
       <c r="G233" t="n">
-        <v>11.8</v>
+        <v>133.4</v>
+      </c>
+      <c r="H233" t="n">
+        <v>16891.6657</v>
+      </c>
+      <c r="I233" t="n">
+        <v>2259.0724</v>
+      </c>
+      <c r="J233" t="n">
+        <v>19150.7381</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>144007.2224</v>
+        <v>34146.5841</v>
       </c>
       <c r="C234" t="n">
-        <v>9.300000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>17659.4802</v>
+        <v>4231.2083</v>
       </c>
       <c r="E234" t="n">
-        <v>2.4</v>
+        <v>57.5</v>
       </c>
       <c r="F234" t="n">
-        <v>161666.7026</v>
+        <v>38377.7924</v>
       </c>
       <c r="G234" t="n">
-        <v>8.5</v>
+        <v>88.5</v>
+      </c>
+      <c r="H234" t="n">
+        <v>17254.9184</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1972.1359</v>
+      </c>
+      <c r="J234" t="n">
+        <v>19227.0543</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>161313.5205</v>
+        <v>47820.7076</v>
       </c>
       <c r="C235" t="n">
-        <v>5.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D235" t="n">
-        <v>20616.4289</v>
+        <v>5788.4453</v>
       </c>
       <c r="E235" t="n">
-        <v>1.4</v>
+        <v>42</v>
       </c>
       <c r="F235" t="n">
-        <v>181929.9494</v>
+        <v>53609.1529</v>
       </c>
       <c r="G235" t="n">
-        <v>4.8</v>
+        <v>68.2</v>
+      </c>
+      <c r="H235" t="n">
+        <v>13674.1235</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1557.237</v>
+      </c>
+      <c r="J235" t="n">
+        <v>15231.3605</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>16891.6657</v>
+        <v>63171.3236</v>
       </c>
       <c r="C236" t="n">
-        <v>139.5</v>
+        <v>55.8</v>
       </c>
       <c r="D236" t="n">
-        <v>2259.0724</v>
+        <v>7362.3745</v>
       </c>
       <c r="E236" t="n">
-        <v>96.09999999999999</v>
+        <v>28.7</v>
       </c>
       <c r="F236" t="n">
-        <v>19150.7381</v>
+        <v>70533.69809999999</v>
       </c>
       <c r="G236" t="n">
-        <v>133.4</v>
+        <v>52.4</v>
+      </c>
+      <c r="H236" t="n">
+        <v>15350.616</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1573.9292</v>
+      </c>
+      <c r="J236" t="n">
+        <v>16924.54519999999</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>34146.5841</v>
+        <v>83258.5358</v>
       </c>
       <c r="C237" t="n">
-        <v>93.09999999999999</v>
+        <v>41.4</v>
       </c>
       <c r="D237" t="n">
-        <v>4231.2083</v>
+        <v>9672.7716</v>
       </c>
       <c r="E237" t="n">
-        <v>57.5</v>
+        <v>20.7</v>
       </c>
       <c r="F237" t="n">
-        <v>38377.7924</v>
+        <v>92931.30740000001</v>
       </c>
       <c r="G237" t="n">
-        <v>88.5</v>
+        <v>38.9</v>
+      </c>
+      <c r="H237" t="n">
+        <v>20087.21219999999</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2310.3971</v>
+      </c>
+      <c r="J237" t="n">
+        <v>22397.60930000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>47820.7076</v>
+        <v>95254.337</v>
       </c>
       <c r="C238" t="n">
-        <v>72.09999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="D238" t="n">
-        <v>5788.4453</v>
+        <v>11176.088</v>
       </c>
       <c r="E238" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="F238" t="n">
-        <v>53609.1529</v>
+        <v>106430.425</v>
       </c>
       <c r="G238" t="n">
-        <v>68.2</v>
+        <v>30.7</v>
+      </c>
+      <c r="H238" t="n">
+        <v>11995.8012</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1503.3164</v>
+      </c>
+      <c r="J238" t="n">
+        <v>13499.1176</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>63171.3236</v>
+        <v>106565.8637</v>
       </c>
       <c r="C239" t="n">
-        <v>55.8</v>
+        <v>24.4</v>
       </c>
       <c r="D239" t="n">
-        <v>7362.3745</v>
+        <v>12480.9991</v>
       </c>
       <c r="E239" t="n">
-        <v>28.7</v>
+        <v>10.9</v>
       </c>
       <c r="F239" t="n">
-        <v>70533.69809999999</v>
+        <v>119046.8628</v>
       </c>
       <c r="G239" t="n">
-        <v>52.4</v>
+        <v>22.8</v>
+      </c>
+      <c r="H239" t="n">
+        <v>11311.5267</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1304.911100000001</v>
+      </c>
+      <c r="J239" t="n">
+        <v>12616.4378</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>83258.5358</v>
+        <v>120518.2774</v>
       </c>
       <c r="C240" t="n">
-        <v>41.4</v>
+        <v>17.9</v>
       </c>
       <c r="D240" t="n">
-        <v>9672.7716</v>
+        <v>14276.6519</v>
       </c>
       <c r="E240" t="n">
-        <v>20.7</v>
+        <v>6.6</v>
       </c>
       <c r="F240" t="n">
-        <v>92931.30740000001</v>
+        <v>134794.9293</v>
       </c>
       <c r="G240" t="n">
-        <v>38.9</v>
+        <v>16.6</v>
+      </c>
+      <c r="H240" t="n">
+        <v>13952.4137</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1795.6528</v>
+      </c>
+      <c r="J240" t="n">
+        <v>15748.06649999999</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>95254.337</v>
+        <v>131359.5755</v>
       </c>
       <c r="C241" t="n">
-        <v>32.8</v>
+        <v>12.8</v>
       </c>
       <c r="D241" t="n">
-        <v>11176.088</v>
+        <v>15825.0812</v>
       </c>
       <c r="E241" t="n">
-        <v>15.5</v>
+        <v>4.1</v>
       </c>
       <c r="F241" t="n">
-        <v>106430.425</v>
+        <v>147184.6567</v>
       </c>
       <c r="G241" t="n">
-        <v>30.7</v>
+        <v>11.8</v>
+      </c>
+      <c r="H241" t="n">
+        <v>10841.2981</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1548.4293</v>
+      </c>
+      <c r="J241" t="n">
+        <v>12389.7274</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>106565.8637</v>
+        <v>144007.2224</v>
       </c>
       <c r="C242" t="n">
-        <v>24.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>12480.9991</v>
+        <v>17659.4802</v>
       </c>
       <c r="E242" t="n">
-        <v>10.9</v>
+        <v>2.4</v>
       </c>
       <c r="F242" t="n">
-        <v>119046.8628</v>
+        <v>161666.7026</v>
       </c>
       <c r="G242" t="n">
-        <v>22.8</v>
+        <v>8.5</v>
+      </c>
+      <c r="H242" t="n">
+        <v>12647.64689999999</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1834.399000000001</v>
+      </c>
+      <c r="J242" t="n">
+        <v>14482.0459</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>120518.2774</v>
+        <v>161313.5205</v>
       </c>
       <c r="C243" t="n">
-        <v>17.9</v>
+        <v>5.2</v>
       </c>
       <c r="D243" t="n">
-        <v>14276.6519</v>
+        <v>20616.4289</v>
       </c>
       <c r="E243" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="F243" t="n">
-        <v>134794.9293</v>
+        <v>181929.9494</v>
       </c>
       <c r="G243" t="n">
-        <v>16.6</v>
+        <v>4.8</v>
+      </c>
+      <c r="H243" t="n">
+        <v>17306.29810000001</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2956.948699999997</v>
+      </c>
+      <c r="J243" t="n">
+        <v>20263.24680000002</v>
       </c>
     </row>
   </sheetData>
